--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -404,13 +404,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.656019656019656</v>
+        <v>0.628062360801782</v>
       </c>
       <c r="C2" t="n">
-        <v>0.764705882352941</v>
+        <v>0.740412979351032</v>
       </c>
       <c r="D2" t="n">
-        <v>0.710227272727273</v>
+        <v>0.652709359605911</v>
       </c>
     </row>
     <row r="3">
@@ -418,13 +418,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.343980343980344</v>
+        <v>0.345211581291759</v>
       </c>
       <c r="C3" t="n">
-        <v>0.563025210084034</v>
+        <v>0.561455260570305</v>
       </c>
       <c r="D3" t="n">
-        <v>0.585227272727273</v>
+        <v>0.491379310344828</v>
       </c>
     </row>
     <row r="4">
@@ -432,13 +432,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.57002457002457</v>
+        <v>0.542316258351893</v>
       </c>
       <c r="C4" t="n">
-        <v>0.561344537815126</v>
+        <v>0.564405113077679</v>
       </c>
       <c r="D4" t="n">
-        <v>0.59375</v>
+        <v>0.490147783251232</v>
       </c>
     </row>
     <row r="5">
@@ -446,13 +446,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.535626535626536</v>
+        <v>0.524498886414254</v>
       </c>
       <c r="C5" t="n">
-        <v>0.541176470588235</v>
+        <v>0.529006882989184</v>
       </c>
       <c r="D5" t="n">
-        <v>0.639204545454545</v>
+        <v>0.538177339901478</v>
       </c>
     </row>
     <row r="6">
@@ -460,13 +460,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.595918367346939</v>
+        <v>0.580340264650284</v>
       </c>
       <c r="C6" t="n">
-        <v>0.626740947075209</v>
+        <v>0.609348914858097</v>
       </c>
       <c r="D6" t="n">
-        <v>0.692660550458716</v>
+        <v>0.550515463917526</v>
       </c>
     </row>
     <row r="7">
@@ -474,13 +474,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.592137592137592</v>
+        <v>0.560133630289532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.682352941176471</v>
+        <v>0.676499508357915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.713068181818182</v>
+        <v>0.58128078817734</v>
       </c>
     </row>
     <row r="8">
@@ -488,13 +488,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.657142857142857</v>
+        <v>0.627599243856333</v>
       </c>
       <c r="C8" t="n">
-        <v>0.632311977715877</v>
+        <v>0.629382303839733</v>
       </c>
       <c r="D8" t="n">
-        <v>0.637614678899083</v>
+        <v>0.556701030927835</v>
       </c>
     </row>
     <row r="9">
@@ -502,13 +502,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.518367346938776</v>
+        <v>0.476370510396975</v>
       </c>
       <c r="C9" t="n">
-        <v>0.504178272980501</v>
+        <v>0.510851419031719</v>
       </c>
       <c r="D9" t="n">
-        <v>0.582568807339449</v>
+        <v>0.484536082474227</v>
       </c>
     </row>
     <row r="10">
@@ -516,13 +516,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.506122448979592</v>
+        <v>0.453686200378072</v>
       </c>
       <c r="C10" t="n">
-        <v>0.646239554317549</v>
+        <v>0.619365609348915</v>
       </c>
       <c r="D10" t="n">
-        <v>0.605504587155963</v>
+        <v>0.519587628865979</v>
       </c>
     </row>
     <row r="11">
@@ -530,13 +530,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.391836734693878</v>
+        <v>0.378071833648393</v>
       </c>
       <c r="C11" t="n">
-        <v>0.487465181058496</v>
+        <v>0.450751252086811</v>
       </c>
       <c r="D11" t="n">
-        <v>0.444954128440367</v>
+        <v>0.369072164948454</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -410,7 +410,7 @@
         <v>0.740412979351032</v>
       </c>
       <c r="D2" t="n">
-        <v>0.652709359605911</v>
+        <v>0.652862362971985</v>
       </c>
     </row>
     <row r="3">
@@ -424,7 +424,7 @@
         <v>0.561455260570305</v>
       </c>
       <c r="D3" t="n">
-        <v>0.491379310344828</v>
+        <v>0.489646772228989</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.564405113077679</v>
       </c>
       <c r="D4" t="n">
-        <v>0.490147783251232</v>
+        <v>0.489646772228989</v>
       </c>
     </row>
     <row r="5">
@@ -452,7 +452,7 @@
         <v>0.529006882989184</v>
       </c>
       <c r="D5" t="n">
-        <v>0.538177339901478</v>
+        <v>0.535931790499391</v>
       </c>
     </row>
     <row r="6">
@@ -466,7 +466,7 @@
         <v>0.609348914858097</v>
       </c>
       <c r="D6" t="n">
-        <v>0.550515463917526</v>
+        <v>0.551020408163265</v>
       </c>
     </row>
     <row r="7">
@@ -480,7 +480,7 @@
         <v>0.676499508357915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.58128078817734</v>
+        <v>0.580998781973203</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +494,7 @@
         <v>0.629382303839733</v>
       </c>
       <c r="D8" t="n">
-        <v>0.556701030927835</v>
+        <v>0.559183673469388</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>0.510851419031719</v>
       </c>
       <c r="D9" t="n">
-        <v>0.484536082474227</v>
+        <v>0.483673469387755</v>
       </c>
     </row>
     <row r="10">
@@ -522,7 +522,7 @@
         <v>0.619365609348915</v>
       </c>
       <c r="D10" t="n">
-        <v>0.519587628865979</v>
+        <v>0.520408163265306</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +536,7 @@
         <v>0.450751252086811</v>
       </c>
       <c r="D11" t="n">
-        <v>0.369072164948454</v>
+        <v>0.369387755102041</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -404,13 +404,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.628062360801782</v>
+        <v>0.639</v>
       </c>
       <c r="C2" t="n">
         <v>0.740412979351032</v>
       </c>
       <c r="D2" t="n">
-        <v>0.652862362971985</v>
+        <v>0.633714880332987</v>
       </c>
     </row>
     <row r="3">
@@ -418,13 +418,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.345211581291759</v>
+        <v>0.343</v>
       </c>
       <c r="C3" t="n">
         <v>0.561455260570305</v>
       </c>
       <c r="D3" t="n">
-        <v>0.489646772228989</v>
+        <v>0.476586888657648</v>
       </c>
     </row>
     <row r="4">
@@ -432,13 +432,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.542316258351893</v>
+        <v>0.543</v>
       </c>
       <c r="C4" t="n">
         <v>0.564405113077679</v>
       </c>
       <c r="D4" t="n">
-        <v>0.489646772228989</v>
+        <v>0.474505723204995</v>
       </c>
     </row>
     <row r="5">
@@ -446,13 +446,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.524498886414254</v>
+        <v>0.535</v>
       </c>
       <c r="C5" t="n">
         <v>0.529006882989184</v>
       </c>
       <c r="D5" t="n">
-        <v>0.535931790499391</v>
+        <v>0.527575442247659</v>
       </c>
     </row>
     <row r="6">
@@ -460,13 +460,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.580340264650284</v>
+        <v>0.584055459272097</v>
       </c>
       <c r="C6" t="n">
         <v>0.609348914858097</v>
       </c>
       <c r="D6" t="n">
-        <v>0.551020408163265</v>
+        <v>0.528695652173913</v>
       </c>
     </row>
     <row r="7">
@@ -474,13 +474,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.560133630289532</v>
+        <v>0.572</v>
       </c>
       <c r="C7" t="n">
         <v>0.676499508357915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.580998781973203</v>
+        <v>0.568158168574402</v>
       </c>
     </row>
     <row r="8">
@@ -488,13 +488,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.627599243856333</v>
+        <v>0.632582322357019</v>
       </c>
       <c r="C8" t="n">
         <v>0.629382303839733</v>
       </c>
       <c r="D8" t="n">
-        <v>0.559183673469388</v>
+        <v>0.546086956521739</v>
       </c>
     </row>
     <row r="9">
@@ -502,13 +502,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.476370510396975</v>
+        <v>0.480069324090121</v>
       </c>
       <c r="C9" t="n">
         <v>0.510851419031719</v>
       </c>
       <c r="D9" t="n">
-        <v>0.483673469387755</v>
+        <v>0.47304347826087</v>
       </c>
     </row>
     <row r="10">
@@ -516,13 +516,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.453686200378072</v>
+        <v>0.459272097053726</v>
       </c>
       <c r="C10" t="n">
         <v>0.619365609348915</v>
       </c>
       <c r="D10" t="n">
-        <v>0.520408163265306</v>
+        <v>0.490434782608696</v>
       </c>
     </row>
     <row r="11">
@@ -530,13 +530,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.378071833648393</v>
+        <v>0.386481802426343</v>
       </c>
       <c r="C11" t="n">
         <v>0.450751252086811</v>
       </c>
       <c r="D11" t="n">
-        <v>0.369387755102041</v>
+        <v>0.349565217391304</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -12,48 +12,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">solidarity_support_billionaire_tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_corporate_tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_expanding_security_council</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_foreign_aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_debt_relief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_bridgetown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_loss_damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_ncqg_300bn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_shipping_levy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_aviation_levy</t>
+    <t xml:space="preserve">Minimum tax of 2% on billionaires'
+wealth, in voluntary countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
+allocating revenues to countries based on sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members
+(e.g. India, Brazil, AU), restrict veto use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
+investments in LICs, and at lower interest rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with cliamte Loss and damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on carbon emissions from shipping,
+financing countries' budgets in proportion to their population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levy on aviation carbon emissions,
+returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -398,145 +428,376 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.639</v>
+        <v>0.807541017932447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.740412979351032</v>
+        <v>0.738545243070022</v>
       </c>
       <c r="D2" t="n">
-        <v>0.633714880332987</v>
+        <v>0.69048567630923</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.719706614090954</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.710960840497366</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.692441841589219</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.697277213503167</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.685712303210988</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.764093460590359</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.343</v>
+        <v>0.649035635952994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.561455260570305</v>
+        <v>0.635467853766337</v>
       </c>
       <c r="D3" t="n">
-        <v>0.476586888657648</v>
+        <v>0.673863268098058</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.374037403740374</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.497031648013845</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.543828038918276</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.517452399277842</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.391350617733166</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.603543395346467</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.634190171109724</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.543</v>
+        <v>0.577221878499812</v>
       </c>
       <c r="C4" t="n">
-        <v>0.564405113077679</v>
+        <v>0.642553373198937</v>
       </c>
       <c r="D4" t="n">
-        <v>0.474505723204995</v>
+        <v>0.694549067097406</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.289328932893289</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.504204112825341</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.652443533858037</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.551549069206451</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.646832538064252</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.569488699587383</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.554631103790203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.535</v>
+        <v>0.591120567244404</v>
       </c>
       <c r="C5" t="n">
-        <v>0.529006882989184</v>
+        <v>0.543083583984458</v>
       </c>
       <c r="D5" t="n">
-        <v>0.527575442247659</v>
+        <v>0.63499741800389</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.294829482948295</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.586585333726878</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.703264986316047</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.597158345113893</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.44881728762132</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.494571240908691</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.641462003526957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.584055459272097</v>
+        <v>0.587029790016304</v>
       </c>
       <c r="C6" t="n">
-        <v>0.609348914858097</v>
+        <v>0.541157378100249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.528695652173913</v>
+        <v>0.670984167143667</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.367436743674367</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.527978226677457</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.733718257171836</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.584821058584181</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.49456633673827</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.494251440011683</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.493397625445555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.572</v>
+        <v>0.636562377262482</v>
       </c>
       <c r="C7" t="n">
-        <v>0.676499508357915</v>
+        <v>0.662537778342775</v>
       </c>
       <c r="D7" t="n">
-        <v>0.568158168574402</v>
+        <v>0.703465589450878</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4004400440044</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.527027251997072</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.700659239308182</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.646543867647992</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.633631396382704</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.633521871250759</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.618002915602342</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.632582322357019</v>
+        <v>0.592005119646874</v>
       </c>
       <c r="C8" t="n">
-        <v>0.629382303839733</v>
+        <v>0.611511131143094</v>
       </c>
       <c r="D8" t="n">
-        <v>0.546086956521739</v>
+        <v>0.67551430962485</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.412541254125413</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.647136153693733</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.750507822405037</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.624848149971532</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.58407702415615</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.585953994244578</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.519451739243633</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.480069324090121</v>
+        <v>0.610806984709563</v>
       </c>
       <c r="C9" t="n">
-        <v>0.510851419031719</v>
+        <v>0.634795940078013</v>
       </c>
       <c r="D9" t="n">
-        <v>0.47304347826087</v>
+        <v>0.61321107622711</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.265126512651265</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.561672468853131</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.686572570613159</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.563241588379602</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5032643985007</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.468771757241202</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.613299782269379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.459272097053726</v>
+        <v>0.711914940507736</v>
       </c>
       <c r="C10" t="n">
-        <v>0.619365609348915</v>
+        <v>0.577399713963937</v>
       </c>
       <c r="D10" t="n">
-        <v>0.490434782608696</v>
+        <v>0.666250395077315</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.278327832783278</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.483966827160834</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.64989192575686</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.578927172971199</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.620689138402754</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.533818512828512</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.610486140226481</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.386481802426343</v>
+        <v>0.553066272545428</v>
       </c>
       <c r="C11" t="n">
-        <v>0.450751252086811</v>
+        <v>0.42541643328238</v>
       </c>
       <c r="D11" t="n">
-        <v>0.349565217391304</v>
+        <v>0.525249805310735</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.272827282728273</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.442763490949331</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.533412795598556</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.477173184846015</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.389823615730098</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.489746625393355</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.497790163077941</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -51,14 +51,30 @@
 wealth, in voluntary countries</t>
   </si>
   <si>
+    <t xml:space="preserve">International levy on carbon emissions from
+shipping, returned to countries based on population</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
+    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
+investments in LICs, and at lower interest rates</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members
 (e.g. India, Brazil, AU), restrict veto use</t>
   </si>
   <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with cliamte Loss and damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
     <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
@@ -66,24 +82,8 @@
 payments until they are more able to repay</t>
   </si>
   <si>
-    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
-investments in LICs, and at lower interest rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on carbon emissions from shipping,
-financing countries' budgets in proportion to their population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levy on aviation carbon emissions,
-returned to countries based on population</t>
+    <t xml:space="preserve">International levy on carbon emissions from
+aviation, returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -455,34 +455,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.807541017932447</v>
+        <v>0.78680542040342</v>
       </c>
       <c r="C2" t="n">
-        <v>0.738545243070022</v>
+        <v>0.732194039600994</v>
       </c>
       <c r="D2" t="n">
-        <v>0.69048567630923</v>
+        <v>0.687412964560634</v>
       </c>
       <c r="E2" t="n">
         <v>0.555555555555556</v>
       </c>
       <c r="F2" t="n">
-        <v>0.719706614090954</v>
+        <v>0.726507575298666</v>
       </c>
       <c r="G2" t="n">
-        <v>0.710960840497366</v>
+        <v>0.707733992557177</v>
       </c>
       <c r="H2" t="n">
-        <v>0.692441841589219</v>
+        <v>0.688195290044124</v>
       </c>
       <c r="I2" t="n">
-        <v>0.697277213503167</v>
+        <v>0.70956762698303</v>
       </c>
       <c r="J2" t="n">
-        <v>0.685712303210988</v>
+        <v>0.689100428912231</v>
       </c>
       <c r="K2" t="n">
-        <v>0.764093460590359</v>
+        <v>0.738060697704063</v>
       </c>
     </row>
     <row r="3">
@@ -490,34 +490,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.649035635952994</v>
+        <v>0.686905777137432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.635467853766337</v>
+        <v>0.556816321782975</v>
       </c>
       <c r="D3" t="n">
-        <v>0.673863268098058</v>
+        <v>0.663288028838119</v>
       </c>
       <c r="E3" t="n">
-        <v>0.374037403740374</v>
+        <v>0.278327832783278</v>
       </c>
       <c r="F3" t="n">
-        <v>0.497031648013845</v>
+        <v>0.503176467719106</v>
       </c>
       <c r="G3" t="n">
-        <v>0.543828038918276</v>
+        <v>0.647103145360982</v>
       </c>
       <c r="H3" t="n">
-        <v>0.517452399277842</v>
+        <v>0.57355026453351</v>
       </c>
       <c r="I3" t="n">
-        <v>0.391350617733166</v>
+        <v>0.658746543345596</v>
       </c>
       <c r="J3" t="n">
-        <v>0.603543395346467</v>
+        <v>0.542001527547961</v>
       </c>
       <c r="K3" t="n">
-        <v>0.634190171109724</v>
+        <v>0.594239561923024</v>
       </c>
     </row>
     <row r="4">
@@ -525,34 +525,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.577221878499812</v>
+        <v>0.634371341785538</v>
       </c>
       <c r="C4" t="n">
-        <v>0.642553373198937</v>
+        <v>0.601780935264311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.694549067097406</v>
+        <v>0.671133253182439</v>
       </c>
       <c r="E4" t="n">
-        <v>0.289328932893289</v>
+        <v>0.374037403740374</v>
       </c>
       <c r="F4" t="n">
-        <v>0.504204112825341</v>
+        <v>0.502275781954566</v>
       </c>
       <c r="G4" t="n">
-        <v>0.652443533858037</v>
+        <v>0.546224978420674</v>
       </c>
       <c r="H4" t="n">
-        <v>0.551549069206451</v>
+        <v>0.510929892750816</v>
       </c>
       <c r="I4" t="n">
-        <v>0.646832538064252</v>
+        <v>0.440270420231705</v>
       </c>
       <c r="J4" t="n">
-        <v>0.569488699587383</v>
+        <v>0.607678863310952</v>
       </c>
       <c r="K4" t="n">
-        <v>0.554631103790203</v>
+        <v>0.614381302152418</v>
       </c>
     </row>
     <row r="5">
@@ -560,34 +560,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.591120567244404</v>
+        <v>0.619140119764175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.543083583984458</v>
+        <v>0.674061754472996</v>
       </c>
       <c r="D5" t="n">
-        <v>0.63499741800389</v>
+        <v>0.700516393679149</v>
       </c>
       <c r="E5" t="n">
-        <v>0.294829482948295</v>
+        <v>0.4004400440044</v>
       </c>
       <c r="F5" t="n">
-        <v>0.586585333726878</v>
+        <v>0.548217995417173</v>
       </c>
       <c r="G5" t="n">
-        <v>0.703264986316047</v>
+        <v>0.69743311534892</v>
       </c>
       <c r="H5" t="n">
-        <v>0.597158345113893</v>
+        <v>0.641696850810691</v>
       </c>
       <c r="I5" t="n">
-        <v>0.44881728762132</v>
+        <v>0.646790477376586</v>
       </c>
       <c r="J5" t="n">
-        <v>0.494571240908691</v>
+        <v>0.643522122933063</v>
       </c>
       <c r="K5" t="n">
-        <v>0.641462003526957</v>
+        <v>0.585868497310764</v>
       </c>
     </row>
     <row r="6">
@@ -595,34 +595,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.587029790016304</v>
+        <v>0.592929640044433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.541157378100249</v>
+        <v>0.640867799166916</v>
       </c>
       <c r="D6" t="n">
-        <v>0.670984167143667</v>
+        <v>0.691653923333981</v>
       </c>
       <c r="E6" t="n">
-        <v>0.367436743674367</v>
+        <v>0.289328932893289</v>
       </c>
       <c r="F6" t="n">
-        <v>0.527978226677457</v>
+        <v>0.522267631851888</v>
       </c>
       <c r="G6" t="n">
-        <v>0.733718257171836</v>
+        <v>0.649670045655912</v>
       </c>
       <c r="H6" t="n">
-        <v>0.584821058584181</v>
+        <v>0.547856350199662</v>
       </c>
       <c r="I6" t="n">
-        <v>0.49456633673827</v>
+        <v>0.656666973950919</v>
       </c>
       <c r="J6" t="n">
-        <v>0.494251440011683</v>
+        <v>0.56428772680037</v>
       </c>
       <c r="K6" t="n">
-        <v>0.493397625445555</v>
+        <v>0.531701635970964</v>
       </c>
     </row>
     <row r="7">
@@ -630,34 +630,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.636562377262482</v>
+        <v>0.58528267241331</v>
       </c>
       <c r="C7" t="n">
-        <v>0.662537778342775</v>
+        <v>0.614560577923525</v>
       </c>
       <c r="D7" t="n">
-        <v>0.703465589450878</v>
+        <v>0.672645857750404</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4004400440044</v>
+        <v>0.412541254125413</v>
       </c>
       <c r="F7" t="n">
-        <v>0.527027251997072</v>
+        <v>0.644532497911187</v>
       </c>
       <c r="G7" t="n">
-        <v>0.700659239308182</v>
+        <v>0.746276387986119</v>
       </c>
       <c r="H7" t="n">
-        <v>0.646543867647992</v>
+        <v>0.624151521918878</v>
       </c>
       <c r="I7" t="n">
-        <v>0.633631396382704</v>
+        <v>0.604081570716739</v>
       </c>
       <c r="J7" t="n">
-        <v>0.633521871250759</v>
+        <v>0.592967030840053</v>
       </c>
       <c r="K7" t="n">
-        <v>0.618002915602342</v>
+        <v>0.490457829430687</v>
       </c>
     </row>
     <row r="8">
@@ -665,34 +665,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.592005119646874</v>
+        <v>0.5845569077451</v>
       </c>
       <c r="C8" t="n">
-        <v>0.611511131143094</v>
+        <v>0.616540611932479</v>
       </c>
       <c r="D8" t="n">
-        <v>0.67551430962485</v>
+        <v>0.610650176973884</v>
       </c>
       <c r="E8" t="n">
-        <v>0.412541254125413</v>
+        <v>0.265126512651265</v>
       </c>
       <c r="F8" t="n">
-        <v>0.647136153693733</v>
+        <v>0.557854889137854</v>
       </c>
       <c r="G8" t="n">
-        <v>0.750507822405037</v>
+        <v>0.683109978447266</v>
       </c>
       <c r="H8" t="n">
-        <v>0.624848149971532</v>
+        <v>0.55843325154518</v>
       </c>
       <c r="I8" t="n">
-        <v>0.58407702415615</v>
+        <v>0.555590706631964</v>
       </c>
       <c r="J8" t="n">
-        <v>0.585953994244578</v>
+        <v>0.476766205841976</v>
       </c>
       <c r="K8" t="n">
-        <v>0.519451739243633</v>
+        <v>0.580733128784263</v>
       </c>
     </row>
     <row r="9">
@@ -700,34 +700,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.610806984709563</v>
+        <v>0.582038527728514</v>
       </c>
       <c r="C9" t="n">
-        <v>0.634795940078013</v>
+        <v>0.545177602017659</v>
       </c>
       <c r="D9" t="n">
-        <v>0.61321107622711</v>
+        <v>0.632019884753145</v>
       </c>
       <c r="E9" t="n">
-        <v>0.265126512651265</v>
+        <v>0.294829482948295</v>
       </c>
       <c r="F9" t="n">
-        <v>0.561672468853131</v>
+        <v>0.602694309334218</v>
       </c>
       <c r="G9" t="n">
-        <v>0.686572570613159</v>
+        <v>0.699821574871058</v>
       </c>
       <c r="H9" t="n">
-        <v>0.563241588379602</v>
+        <v>0.604946394247935</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5032643985007</v>
+        <v>0.484438998847629</v>
       </c>
       <c r="J9" t="n">
-        <v>0.468771757241202</v>
+        <v>0.491391602132269</v>
       </c>
       <c r="K9" t="n">
-        <v>0.613299782269379</v>
+        <v>0.606901628993755</v>
       </c>
     </row>
     <row r="10">
@@ -735,34 +735,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.711914940507736</v>
+        <v>0.556155594670941</v>
       </c>
       <c r="C10" t="n">
-        <v>0.577399713963937</v>
+        <v>0.519884742485647</v>
       </c>
       <c r="D10" t="n">
-        <v>0.666250395077315</v>
+        <v>0.668032622045508</v>
       </c>
       <c r="E10" t="n">
-        <v>0.278327832783278</v>
+        <v>0.367436743674367</v>
       </c>
       <c r="F10" t="n">
-        <v>0.483966827160834</v>
+        <v>0.548111640122319</v>
       </c>
       <c r="G10" t="n">
-        <v>0.64989192575686</v>
+        <v>0.729376260595779</v>
       </c>
       <c r="H10" t="n">
-        <v>0.578927172971199</v>
+        <v>0.587042068942413</v>
       </c>
       <c r="I10" t="n">
-        <v>0.620689138402754</v>
+        <v>0.564013131948527</v>
       </c>
       <c r="J10" t="n">
-        <v>0.533818512828512</v>
+        <v>0.494553524466272</v>
       </c>
       <c r="K10" t="n">
-        <v>0.610486140226481</v>
+        <v>0.491161024234646</v>
       </c>
     </row>
     <row r="11">
@@ -770,34 +770,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.553066272545428</v>
+        <v>0.542662509642063</v>
       </c>
       <c r="C11" t="n">
-        <v>0.42541643328238</v>
+        <v>0.420272696362169</v>
       </c>
       <c r="D11" t="n">
-        <v>0.525249805310735</v>
+        <v>0.523096074898564</v>
       </c>
       <c r="E11" t="n">
         <v>0.272827282728273</v>
       </c>
       <c r="F11" t="n">
-        <v>0.442763490949331</v>
+        <v>0.462199553372293</v>
       </c>
       <c r="G11" t="n">
-        <v>0.533412795598556</v>
+        <v>0.53106269241319</v>
       </c>
       <c r="H11" t="n">
-        <v>0.477173184846015</v>
+        <v>0.46888483889278</v>
       </c>
       <c r="I11" t="n">
-        <v>0.389823615730098</v>
+        <v>0.398394996710356</v>
       </c>
       <c r="J11" t="n">
-        <v>0.489746625393355</v>
+        <v>0.49364337213146</v>
       </c>
       <c r="K11" t="n">
-        <v>0.497790163077941</v>
+        <v>0.46401792364918</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -55,24 +55,24 @@
 shipping, returned to countries based on population</t>
   </si>
   <si>
+    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
+investments in LICs, and at lower interest rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members
+(e.g. India, Brazil, AU), restrict veto use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with cliamte Loss and damage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
-investments in LICs, and at lower interest rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members
-(e.g. India, Brazil, AU), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
@@ -455,34 +455,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.78680542040342</v>
+        <v>0.768341363602139</v>
       </c>
       <c r="C2" t="n">
-        <v>0.732194039600994</v>
+        <v>0.711896389081989</v>
       </c>
       <c r="D2" t="n">
-        <v>0.687412964560634</v>
+        <v>0.762526820102642</v>
       </c>
       <c r="E2" t="n">
-        <v>0.555555555555556</v>
+        <v>0.469525959367946</v>
       </c>
       <c r="F2" t="n">
-        <v>0.726507575298666</v>
+        <v>0.727051097039345</v>
       </c>
       <c r="G2" t="n">
-        <v>0.707733992557177</v>
+        <v>0.728471876249144</v>
       </c>
       <c r="H2" t="n">
-        <v>0.688195290044124</v>
+        <v>0.711678874419695</v>
       </c>
       <c r="I2" t="n">
-        <v>0.70956762698303</v>
+        <v>0.778792011780178</v>
       </c>
       <c r="J2" t="n">
-        <v>0.689100428912231</v>
+        <v>0.683624071914523</v>
       </c>
       <c r="K2" t="n">
-        <v>0.738060697704063</v>
+        <v>0.743655612338473</v>
       </c>
     </row>
     <row r="3">
@@ -490,34 +490,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.686905777137432</v>
+        <v>0.677117956382183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.556816321782975</v>
+        <v>0.563413485570399</v>
       </c>
       <c r="D3" t="n">
-        <v>0.663288028838119</v>
+        <v>0.747253354101267</v>
       </c>
       <c r="E3" t="n">
-        <v>0.278327832783278</v>
+        <v>0.243792325056433</v>
       </c>
       <c r="F3" t="n">
-        <v>0.503176467719106</v>
+        <v>0.537140152739073</v>
       </c>
       <c r="G3" t="n">
-        <v>0.647103145360982</v>
+        <v>0.692064463625356</v>
       </c>
       <c r="H3" t="n">
-        <v>0.57355026453351</v>
+        <v>0.562797826394609</v>
       </c>
       <c r="I3" t="n">
-        <v>0.658746543345596</v>
+        <v>0.681300330389259</v>
       </c>
       <c r="J3" t="n">
-        <v>0.542001527547961</v>
+        <v>0.590978164058064</v>
       </c>
       <c r="K3" t="n">
-        <v>0.594239561923024</v>
+        <v>0.641485260701335</v>
       </c>
     </row>
     <row r="4">
@@ -525,34 +525,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.634371341785538</v>
+        <v>0.583368596389138</v>
       </c>
       <c r="C4" t="n">
-        <v>0.601780935264311</v>
+        <v>0.722263434200875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.671133253182439</v>
+        <v>0.764252208877408</v>
       </c>
       <c r="E4" t="n">
-        <v>0.374037403740374</v>
+        <v>0.320541760722348</v>
       </c>
       <c r="F4" t="n">
-        <v>0.502275781954566</v>
+        <v>0.498611477880255</v>
       </c>
       <c r="G4" t="n">
-        <v>0.546224978420674</v>
+        <v>0.71585195298185</v>
       </c>
       <c r="H4" t="n">
-        <v>0.510929892750816</v>
+        <v>0.650152009073471</v>
       </c>
       <c r="I4" t="n">
-        <v>0.440270420231705</v>
+        <v>0.704557201465712</v>
       </c>
       <c r="J4" t="n">
-        <v>0.607678863310952</v>
+        <v>0.683412773203724</v>
       </c>
       <c r="K4" t="n">
-        <v>0.614381302152418</v>
+        <v>0.707311780630803</v>
       </c>
     </row>
     <row r="5">
@@ -560,34 +560,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.619140119764175</v>
+        <v>0.566262689174853</v>
       </c>
       <c r="C5" t="n">
-        <v>0.674061754472996</v>
+        <v>0.699875020661054</v>
       </c>
       <c r="D5" t="n">
-        <v>0.700516393679149</v>
+        <v>0.69586354052424</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4004400440044</v>
+        <v>0.282167042889391</v>
       </c>
       <c r="F5" t="n">
-        <v>0.548217995417173</v>
+        <v>0.440377486583409</v>
       </c>
       <c r="G5" t="n">
-        <v>0.69743311534892</v>
+        <v>0.658979416069315</v>
       </c>
       <c r="H5" t="n">
-        <v>0.641696850810691</v>
+        <v>0.566169336018735</v>
       </c>
       <c r="I5" t="n">
-        <v>0.646790477376586</v>
+        <v>0.616994277167823</v>
       </c>
       <c r="J5" t="n">
-        <v>0.643522122933063</v>
+        <v>0.610958057721219</v>
       </c>
       <c r="K5" t="n">
-        <v>0.585868497310764</v>
+        <v>0.442910868186576</v>
       </c>
     </row>
     <row r="6">
@@ -595,34 +595,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.592929640044433</v>
+        <v>0.565659288307266</v>
       </c>
       <c r="C6" t="n">
-        <v>0.640867799166916</v>
+        <v>0.594693858292325</v>
       </c>
       <c r="D6" t="n">
-        <v>0.691653923333981</v>
+        <v>0.663226673147561</v>
       </c>
       <c r="E6" t="n">
-        <v>0.289328932893289</v>
+        <v>0.2686230248307</v>
       </c>
       <c r="F6" t="n">
-        <v>0.522267631851888</v>
+        <v>0.489736331499352</v>
       </c>
       <c r="G6" t="n">
-        <v>0.649670045655912</v>
+        <v>0.686027962361719</v>
       </c>
       <c r="H6" t="n">
-        <v>0.547856350199662</v>
+        <v>0.638516895428505</v>
       </c>
       <c r="I6" t="n">
-        <v>0.656666973950919</v>
+        <v>0.660189934939156</v>
       </c>
       <c r="J6" t="n">
-        <v>0.56428772680037</v>
+        <v>0.490518651072158</v>
       </c>
       <c r="K6" t="n">
-        <v>0.531701635970964</v>
+        <v>0.619178143149394</v>
       </c>
     </row>
     <row r="7">
@@ -630,34 +630,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.58528267241331</v>
+        <v>0.564981701701541</v>
       </c>
       <c r="C7" t="n">
-        <v>0.614560577923525</v>
+        <v>0.581011341942705</v>
       </c>
       <c r="D7" t="n">
-        <v>0.672645857750404</v>
+        <v>0.723621542193477</v>
       </c>
       <c r="E7" t="n">
-        <v>0.412541254125413</v>
+        <v>0.336343115124153</v>
       </c>
       <c r="F7" t="n">
-        <v>0.644532497911187</v>
+        <v>0.529391179308349</v>
       </c>
       <c r="G7" t="n">
-        <v>0.746276387986119</v>
+        <v>0.739723282894526</v>
       </c>
       <c r="H7" t="n">
-        <v>0.624151521918878</v>
+        <v>0.696324475268306</v>
       </c>
       <c r="I7" t="n">
-        <v>0.604081570716739</v>
+        <v>0.678329433341856</v>
       </c>
       <c r="J7" t="n">
-        <v>0.592967030840053</v>
+        <v>0.638380065365873</v>
       </c>
       <c r="K7" t="n">
-        <v>0.490457829430687</v>
+        <v>0.566526878552751</v>
       </c>
     </row>
     <row r="8">
@@ -665,34 +665,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5845569077451</v>
+        <v>0.556897072873137</v>
       </c>
       <c r="C8" t="n">
-        <v>0.616540611932479</v>
+        <v>0.63713712014882</v>
       </c>
       <c r="D8" t="n">
-        <v>0.610650176973884</v>
+        <v>0.6966126466216</v>
       </c>
       <c r="E8" t="n">
-        <v>0.265126512651265</v>
+        <v>0.338600451467269</v>
       </c>
       <c r="F8" t="n">
-        <v>0.557854889137854</v>
+        <v>0.449829801811321</v>
       </c>
       <c r="G8" t="n">
-        <v>0.683109978447266</v>
+        <v>0.532846556125595</v>
       </c>
       <c r="H8" t="n">
-        <v>0.55843325154518</v>
+        <v>0.519671025667604</v>
       </c>
       <c r="I8" t="n">
-        <v>0.555590706631964</v>
+        <v>0.455119743111659</v>
       </c>
       <c r="J8" t="n">
-        <v>0.476766205841976</v>
+        <v>0.551605563705206</v>
       </c>
       <c r="K8" t="n">
-        <v>0.580733128784263</v>
+        <v>0.567388337375654</v>
       </c>
     </row>
     <row r="9">
@@ -700,34 +700,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.582038527728514</v>
+        <v>0.546594153548329</v>
       </c>
       <c r="C9" t="n">
-        <v>0.545177602017659</v>
+        <v>0.61226806561707</v>
       </c>
       <c r="D9" t="n">
-        <v>0.632019884753145</v>
+        <v>0.699173219846333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.294829482948295</v>
+        <v>0.313769751693002</v>
       </c>
       <c r="F9" t="n">
-        <v>0.602694309334218</v>
+        <v>0.522456045953031</v>
       </c>
       <c r="G9" t="n">
-        <v>0.699821574871058</v>
+        <v>0.72717356054705</v>
       </c>
       <c r="H9" t="n">
-        <v>0.604946394247935</v>
+        <v>0.632148421299443</v>
       </c>
       <c r="I9" t="n">
-        <v>0.484438998847629</v>
+        <v>0.594317961437745</v>
       </c>
       <c r="J9" t="n">
-        <v>0.491391602132269</v>
+        <v>0.558752079000977</v>
       </c>
       <c r="K9" t="n">
-        <v>0.606901628993755</v>
+        <v>0.691758785781143</v>
       </c>
     </row>
     <row r="10">
@@ -735,34 +735,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.556155594670941</v>
+        <v>0.517221665937282</v>
       </c>
       <c r="C10" t="n">
-        <v>0.519884742485647</v>
+        <v>0.619622355419636</v>
       </c>
       <c r="D10" t="n">
-        <v>0.668032622045508</v>
+        <v>0.716337101038328</v>
       </c>
       <c r="E10" t="n">
-        <v>0.367436743674367</v>
+        <v>0.406320541760722</v>
       </c>
       <c r="F10" t="n">
-        <v>0.548111640122319</v>
+        <v>0.655017550500849</v>
       </c>
       <c r="G10" t="n">
-        <v>0.729376260595779</v>
+        <v>0.754454051701418</v>
       </c>
       <c r="H10" t="n">
-        <v>0.587042068942413</v>
+        <v>0.647239314915938</v>
       </c>
       <c r="I10" t="n">
-        <v>0.564013131948527</v>
+        <v>0.505319729824268</v>
       </c>
       <c r="J10" t="n">
-        <v>0.494553524466272</v>
+        <v>0.51479994721778</v>
       </c>
       <c r="K10" t="n">
-        <v>0.491161024234646</v>
+        <v>0.575453948559578</v>
       </c>
     </row>
     <row r="11">
@@ -770,34 +770,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.542662509642063</v>
+        <v>0.500664103792696</v>
       </c>
       <c r="C11" t="n">
-        <v>0.420272696362169</v>
+        <v>0.413351335311138</v>
       </c>
       <c r="D11" t="n">
-        <v>0.523096074898564</v>
+        <v>0.618962532577434</v>
       </c>
       <c r="E11" t="n">
-        <v>0.272827282728273</v>
+        <v>0.243792325056433</v>
       </c>
       <c r="F11" t="n">
-        <v>0.462199553372293</v>
+        <v>0.469925280932313</v>
       </c>
       <c r="G11" t="n">
-        <v>0.53106269241319</v>
+        <v>0.535487747819761</v>
       </c>
       <c r="H11" t="n">
-        <v>0.46888483889278</v>
+        <v>0.481250579080039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.398394996710356</v>
+        <v>0.50749036410533</v>
       </c>
       <c r="J11" t="n">
-        <v>0.49364337213146</v>
+        <v>0.529364155704284</v>
       </c>
       <c r="K11" t="n">
-        <v>0.46401792364918</v>
+        <v>0.489913430329041</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -59,23 +59,23 @@
 investments in LICs, and at lower interest rates</t>
   </si>
   <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with cliamte Loss and damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
+allocating revenues to countries based on sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members
 (e.g. India, Brazil, AU), restrict veto use</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
 year in climate finance for developing countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
-allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">Debt relief for vulnerable countries, suspending
@@ -455,34 +455,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.768341363602139</v>
+        <v>0.715086997021739</v>
       </c>
       <c r="C2" t="n">
-        <v>0.711896389081989</v>
+        <v>0.724502214729733</v>
       </c>
       <c r="D2" t="n">
-        <v>0.762526820102642</v>
+        <v>0.827609823813527</v>
       </c>
       <c r="E2" t="n">
-        <v>0.469525959367946</v>
+        <v>0.540245966738854</v>
       </c>
       <c r="F2" t="n">
-        <v>0.727051097039345</v>
+        <v>0.654787187089889</v>
       </c>
       <c r="G2" t="n">
-        <v>0.728471876249144</v>
+        <v>0.692171234770606</v>
       </c>
       <c r="H2" t="n">
-        <v>0.711678874419695</v>
+        <v>0.733329053722275</v>
       </c>
       <c r="I2" t="n">
-        <v>0.778792011780178</v>
+        <v>0.682308248290357</v>
       </c>
       <c r="J2" t="n">
-        <v>0.683624071914523</v>
+        <v>0.695611808242551</v>
       </c>
       <c r="K2" t="n">
-        <v>0.743655612338473</v>
+        <v>0.624665242866513</v>
       </c>
     </row>
     <row r="3">
@@ -490,34 +490,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.677117956382183</v>
+        <v>0.65168699654424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.563413485570399</v>
+        <v>0.510974441327742</v>
       </c>
       <c r="D3" t="n">
-        <v>0.747253354101267</v>
+        <v>0.704556501039959</v>
       </c>
       <c r="E3" t="n">
-        <v>0.243792325056433</v>
+        <v>0.33390106225002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.537140152739073</v>
+        <v>0.447247286778383</v>
       </c>
       <c r="G3" t="n">
-        <v>0.692064463625356</v>
+        <v>0.657920125807094</v>
       </c>
       <c r="H3" t="n">
-        <v>0.562797826394609</v>
+        <v>0.580958783975801</v>
       </c>
       <c r="I3" t="n">
-        <v>0.681300330389259</v>
+        <v>0.549542213632902</v>
       </c>
       <c r="J3" t="n">
-        <v>0.590978164058064</v>
+        <v>0.597540989663164</v>
       </c>
       <c r="K3" t="n">
-        <v>0.641485260701335</v>
+        <v>0.474743860213376</v>
       </c>
     </row>
     <row r="4">
@@ -525,34 +525,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.583368596389138</v>
+        <v>0.570857286208189</v>
       </c>
       <c r="C4" t="n">
-        <v>0.722263434200875</v>
+        <v>0.669434328128862</v>
       </c>
       <c r="D4" t="n">
-        <v>0.764252208877408</v>
+        <v>0.767008210407448</v>
       </c>
       <c r="E4" t="n">
-        <v>0.320541760722348</v>
+        <v>0.451458047001631</v>
       </c>
       <c r="F4" t="n">
-        <v>0.498611477880255</v>
+        <v>0.476915850429925</v>
       </c>
       <c r="G4" t="n">
-        <v>0.71585195298185</v>
+        <v>0.670888842880649</v>
       </c>
       <c r="H4" t="n">
-        <v>0.650152009073471</v>
+        <v>0.640912184150682</v>
       </c>
       <c r="I4" t="n">
-        <v>0.704557201465712</v>
+        <v>0.680424131087781</v>
       </c>
       <c r="J4" t="n">
-        <v>0.683412773203724</v>
+        <v>0.632318423192243</v>
       </c>
       <c r="K4" t="n">
-        <v>0.707311780630803</v>
+        <v>0.572240155323478</v>
       </c>
     </row>
     <row r="5">
@@ -560,34 +560,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.566262689174853</v>
+        <v>0.536345081323418</v>
       </c>
       <c r="C5" t="n">
-        <v>0.699875020661054</v>
+        <v>0.613759222978766</v>
       </c>
       <c r="D5" t="n">
-        <v>0.69586354052424</v>
+        <v>0.715524806988261</v>
       </c>
       <c r="E5" t="n">
-        <v>0.282167042889391</v>
+        <v>0.462201152912517</v>
       </c>
       <c r="F5" t="n">
-        <v>0.440377486583409</v>
+        <v>0.521168179157869</v>
       </c>
       <c r="G5" t="n">
-        <v>0.658979416069315</v>
+        <v>0.713072795957997</v>
       </c>
       <c r="H5" t="n">
-        <v>0.566169336018735</v>
+        <v>0.685515999227094</v>
       </c>
       <c r="I5" t="n">
-        <v>0.616994277167823</v>
+        <v>0.642331774778577</v>
       </c>
       <c r="J5" t="n">
-        <v>0.610958057721219</v>
+        <v>0.58538077281757</v>
       </c>
       <c r="K5" t="n">
-        <v>0.442910868186576</v>
+        <v>0.532386518501151</v>
       </c>
     </row>
     <row r="6">
@@ -595,34 +595,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.565659288307266</v>
+        <v>0.526936198503364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.594693858292325</v>
+        <v>0.598713380166413</v>
       </c>
       <c r="D6" t="n">
-        <v>0.663226673147561</v>
+        <v>0.655161585095193</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2686230248307</v>
+        <v>0.418807245591288</v>
       </c>
       <c r="F6" t="n">
-        <v>0.489736331499352</v>
+        <v>0.415009893989211</v>
       </c>
       <c r="G6" t="n">
-        <v>0.686027962361719</v>
+        <v>0.514370079051246</v>
       </c>
       <c r="H6" t="n">
-        <v>0.638516895428505</v>
+        <v>0.56798585177472</v>
       </c>
       <c r="I6" t="n">
-        <v>0.660189934939156</v>
+        <v>0.427078201398005</v>
       </c>
       <c r="J6" t="n">
-        <v>0.490518651072158</v>
+        <v>0.54370396223864</v>
       </c>
       <c r="K6" t="n">
-        <v>0.619178143149394</v>
+        <v>0.483815776672068</v>
       </c>
     </row>
     <row r="7">
@@ -630,34 +630,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.564981701701541</v>
+        <v>0.525357197856725</v>
       </c>
       <c r="C7" t="n">
-        <v>0.581011341942705</v>
+        <v>0.596156063999891</v>
       </c>
       <c r="D7" t="n">
-        <v>0.723621542193477</v>
+        <v>0.662829565323143</v>
       </c>
       <c r="E7" t="n">
-        <v>0.336343115124153</v>
+        <v>0.352391502801895</v>
       </c>
       <c r="F7" t="n">
-        <v>0.529391179308349</v>
+        <v>0.444167403398014</v>
       </c>
       <c r="G7" t="n">
-        <v>0.739723282894526</v>
+        <v>0.691576540145246</v>
       </c>
       <c r="H7" t="n">
-        <v>0.696324475268306</v>
+        <v>0.638451553855266</v>
       </c>
       <c r="I7" t="n">
-        <v>0.678329433341856</v>
+        <v>0.551216799432969</v>
       </c>
       <c r="J7" t="n">
-        <v>0.638380065365873</v>
+        <v>0.544713196068203</v>
       </c>
       <c r="K7" t="n">
-        <v>0.566526878552751</v>
+        <v>0.497260897449134</v>
       </c>
     </row>
     <row r="8">
@@ -665,34 +665,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.556897072873137</v>
+        <v>0.504993265115762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.63713712014882</v>
+        <v>0.583469355896063</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6966126466216</v>
+        <v>0.717377692601625</v>
       </c>
       <c r="E8" t="n">
-        <v>0.338600451467269</v>
+        <v>0.357057044025151</v>
       </c>
       <c r="F8" t="n">
-        <v>0.449829801811321</v>
+        <v>0.462796314716611</v>
       </c>
       <c r="G8" t="n">
-        <v>0.532846556125595</v>
+        <v>0.623559907060539</v>
       </c>
       <c r="H8" t="n">
-        <v>0.519671025667604</v>
+        <v>0.606486393370469</v>
       </c>
       <c r="I8" t="n">
-        <v>0.455119743111659</v>
+        <v>0.613264094018246</v>
       </c>
       <c r="J8" t="n">
-        <v>0.551605563705206</v>
+        <v>0.553730200515503</v>
       </c>
       <c r="K8" t="n">
-        <v>0.567388337375654</v>
+        <v>0.445953781221646</v>
       </c>
     </row>
     <row r="9">
@@ -700,34 +700,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.546594153548329</v>
+        <v>0.487874248052629</v>
       </c>
       <c r="C9" t="n">
-        <v>0.61226806561707</v>
+        <v>0.595154524445759</v>
       </c>
       <c r="D9" t="n">
-        <v>0.699173219846333</v>
+        <v>0.621322457797501</v>
       </c>
       <c r="E9" t="n">
-        <v>0.313769751693002</v>
+        <v>0.329441880213049</v>
       </c>
       <c r="F9" t="n">
-        <v>0.522456045953031</v>
+        <v>0.47078213918603</v>
       </c>
       <c r="G9" t="n">
-        <v>0.72717356054705</v>
+        <v>0.646631990302939</v>
       </c>
       <c r="H9" t="n">
-        <v>0.632148421299443</v>
+        <v>0.6380347446908</v>
       </c>
       <c r="I9" t="n">
-        <v>0.594317961437745</v>
+        <v>0.595240379726788</v>
       </c>
       <c r="J9" t="n">
-        <v>0.558752079000977</v>
+        <v>0.487774192450365</v>
       </c>
       <c r="K9" t="n">
-        <v>0.691758785781143</v>
+        <v>0.473556822307785</v>
       </c>
     </row>
     <row r="10">
@@ -735,34 +735,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.517221665937282</v>
+        <v>0.451325822659947</v>
       </c>
       <c r="C10" t="n">
-        <v>0.619622355419636</v>
+        <v>0.471459677276871</v>
       </c>
       <c r="D10" t="n">
-        <v>0.716337101038328</v>
+        <v>0.65214667485297</v>
       </c>
       <c r="E10" t="n">
-        <v>0.406320541760722</v>
+        <v>0.353936608334891</v>
       </c>
       <c r="F10" t="n">
-        <v>0.655017550500849</v>
+        <v>0.581583102520634</v>
       </c>
       <c r="G10" t="n">
-        <v>0.754454051701418</v>
+        <v>0.731935012661342</v>
       </c>
       <c r="H10" t="n">
-        <v>0.647239314915938</v>
+        <v>0.58096371013567</v>
       </c>
       <c r="I10" t="n">
-        <v>0.505319729824268</v>
+        <v>0.443698103915299</v>
       </c>
       <c r="J10" t="n">
-        <v>0.51479994721778</v>
+        <v>0.545867335374603</v>
       </c>
       <c r="K10" t="n">
-        <v>0.575453948559578</v>
+        <v>0.51504827433869</v>
       </c>
     </row>
     <row r="11">
@@ -770,34 +770,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.500664103792696</v>
+        <v>0.44535635556981</v>
       </c>
       <c r="C11" t="n">
-        <v>0.413351335311138</v>
+        <v>0.440400057268869</v>
       </c>
       <c r="D11" t="n">
-        <v>0.618962532577434</v>
+        <v>0.470166332097819</v>
       </c>
       <c r="E11" t="n">
-        <v>0.243792325056433</v>
+        <v>0.262117365276392</v>
       </c>
       <c r="F11" t="n">
-        <v>0.469925280932313</v>
+        <v>0.35518438881217</v>
       </c>
       <c r="G11" t="n">
-        <v>0.535487747819761</v>
+        <v>0.514999560707877</v>
       </c>
       <c r="H11" t="n">
-        <v>0.481250579080039</v>
+        <v>0.463182670189781</v>
       </c>
       <c r="I11" t="n">
-        <v>0.50749036410533</v>
+        <v>0.445624352945564</v>
       </c>
       <c r="J11" t="n">
-        <v>0.529364155704284</v>
+        <v>0.438433487371958</v>
       </c>
       <c r="K11" t="n">
-        <v>0.489913430329041</v>
+        <v>0.416102010001339</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,35 +32,31 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum tax of 2% on billionaires'
 wealth, in voluntary countries</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-shipping, returned to countries based on population</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
 investments in LICs, and at lower interest rates</t>
   </si>
@@ -63,27 +65,31 @@
 vulnerable countries cope with cliamte Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members
 (e.g. India, Brazil, AU), restrict veto use</t>
   </si>
   <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-aviation, returned to countries based on population</t>
+    <t xml:space="preserve">International levy on aviation carbon emissions, raising
+prices by 30%, returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -449,355 +455,421 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.715086997021739</v>
+        <v>0.657328419412682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.724502214729733</v>
+        <v>0.729257548688762</v>
       </c>
       <c r="D2" t="n">
-        <v>0.827609823813527</v>
+        <v>0.733005573649197</v>
       </c>
       <c r="E2" t="n">
-        <v>0.540245966738854</v>
+        <v>0.743160675449664</v>
       </c>
       <c r="F2" t="n">
-        <v>0.654787187089889</v>
+        <v>0.794715102903548</v>
       </c>
       <c r="G2" t="n">
-        <v>0.692171234770606</v>
+        <v>0.670561410886709</v>
       </c>
       <c r="H2" t="n">
-        <v>0.733329053722275</v>
+        <v>0.70644083694007</v>
       </c>
       <c r="I2" t="n">
-        <v>0.682308248290357</v>
+        <v>0.708688702667237</v>
       </c>
       <c r="J2" t="n">
-        <v>0.695611808242551</v>
+        <v>0.682870894639201</v>
       </c>
       <c r="K2" t="n">
-        <v>0.624665242866513</v>
+        <v>0.542207856991393</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.68664014455803</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.615340979904912</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.65168699654424</v>
+        <v>0.587693578052105</v>
       </c>
       <c r="C3" t="n">
-        <v>0.510974441327742</v>
+        <v>0.639885383145108</v>
       </c>
       <c r="D3" t="n">
-        <v>0.704556501039959</v>
+        <v>0.573543348123137</v>
       </c>
       <c r="E3" t="n">
-        <v>0.33390106225002</v>
+        <v>0.694416317980604</v>
       </c>
       <c r="F3" t="n">
-        <v>0.447247286778383</v>
+        <v>0.754782770504471</v>
       </c>
       <c r="G3" t="n">
-        <v>0.657920125807094</v>
+        <v>0.482719457508465</v>
       </c>
       <c r="H3" t="n">
-        <v>0.580958783975801</v>
+        <v>0.627807763558134</v>
       </c>
       <c r="I3" t="n">
-        <v>0.549542213632902</v>
+        <v>0.630301297843594</v>
       </c>
       <c r="J3" t="n">
-        <v>0.597540989663164</v>
+        <v>0.687950192692246</v>
       </c>
       <c r="K3" t="n">
-        <v>0.474743860213376</v>
+        <v>0.452287062889628</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.645718038522661</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.575954789632536</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.570857286208189</v>
+        <v>0.566850864091091</v>
       </c>
       <c r="C4" t="n">
-        <v>0.669434328128862</v>
+        <v>0.618399842186938</v>
       </c>
       <c r="D4" t="n">
-        <v>0.767008210407448</v>
+        <v>0.542455620458305</v>
       </c>
       <c r="E4" t="n">
-        <v>0.451458047001631</v>
+        <v>0.634449110044495</v>
       </c>
       <c r="F4" t="n">
-        <v>0.476915850429925</v>
+        <v>0.705728899646891</v>
       </c>
       <c r="G4" t="n">
-        <v>0.670888842880649</v>
+        <v>0.511920068985261</v>
       </c>
       <c r="H4" t="n">
-        <v>0.640912184150682</v>
+        <v>0.680291736829537</v>
       </c>
       <c r="I4" t="n">
-        <v>0.680424131087781</v>
+        <v>0.606823662580171</v>
       </c>
       <c r="J4" t="n">
-        <v>0.632318423192243</v>
+        <v>0.652290556731197</v>
       </c>
       <c r="K4" t="n">
-        <v>0.572240155323478</v>
+        <v>0.462217875088911</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.707610040379386</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.535056423753802</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.536345081323418</v>
+        <v>0.514304792358419</v>
       </c>
       <c r="C5" t="n">
-        <v>0.613759222978766</v>
+        <v>0.585203429869476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.715524806988261</v>
+        <v>0.64578611801631</v>
       </c>
       <c r="E5" t="n">
-        <v>0.462201152912517</v>
+        <v>0.535680898038048</v>
       </c>
       <c r="F5" t="n">
-        <v>0.521168179157869</v>
+        <v>0.684234764950132</v>
       </c>
       <c r="G5" t="n">
-        <v>0.713072795957997</v>
+        <v>0.439127208584077</v>
       </c>
       <c r="H5" t="n">
-        <v>0.685515999227094</v>
+        <v>0.567156775821967</v>
       </c>
       <c r="I5" t="n">
-        <v>0.642331774778577</v>
+        <v>0.60521553938405</v>
       </c>
       <c r="J5" t="n">
-        <v>0.58538077281757</v>
+        <v>0.537458700152771</v>
       </c>
       <c r="K5" t="n">
-        <v>0.532386518501151</v>
+        <v>0.332738544873125</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.659948880150664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.491121618963963</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.526936198503364</v>
+        <v>0.509474426015787</v>
       </c>
       <c r="C6" t="n">
-        <v>0.598713380166413</v>
+        <v>0.577283884007034</v>
       </c>
       <c r="D6" t="n">
-        <v>0.655161585095193</v>
+        <v>0.512994447244161</v>
       </c>
       <c r="E6" t="n">
-        <v>0.418807245591288</v>
+        <v>0.640300388435114</v>
       </c>
       <c r="F6" t="n">
-        <v>0.415009893989211</v>
+        <v>0.633466713909412</v>
       </c>
       <c r="G6" t="n">
-        <v>0.514370079051246</v>
+        <v>0.444020045095075</v>
       </c>
       <c r="H6" t="n">
-        <v>0.56798585177472</v>
+        <v>0.621259380108722</v>
       </c>
       <c r="I6" t="n">
-        <v>0.427078201398005</v>
+        <v>0.567436345334036</v>
       </c>
       <c r="J6" t="n">
-        <v>0.54370396223864</v>
+        <v>0.519227769130614</v>
       </c>
       <c r="K6" t="n">
-        <v>0.483815776672068</v>
+        <v>0.351070840333438</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.681802018023999</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.477712793238314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.525357197856725</v>
+        <v>0.501292221688328</v>
       </c>
       <c r="C7" t="n">
-        <v>0.596156063999891</v>
+        <v>0.529649601870789</v>
       </c>
       <c r="D7" t="n">
-        <v>0.662829565323143</v>
+        <v>0.43128080993381</v>
       </c>
       <c r="E7" t="n">
-        <v>0.352391502801895</v>
+        <v>0.489986220196691</v>
       </c>
       <c r="F7" t="n">
-        <v>0.444167403398014</v>
+        <v>0.638561001393627</v>
       </c>
       <c r="G7" t="n">
-        <v>0.691576540145246</v>
+        <v>0.589551081112913</v>
       </c>
       <c r="H7" t="n">
-        <v>0.638451553855266</v>
+        <v>0.546527816585993</v>
       </c>
       <c r="I7" t="n">
-        <v>0.551216799432969</v>
+        <v>0.531868238738193</v>
       </c>
       <c r="J7" t="n">
-        <v>0.544713196068203</v>
+        <v>0.49990790930802</v>
       </c>
       <c r="K7" t="n">
-        <v>0.497260897449134</v>
+        <v>0.353652333734055</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.727746532051524</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.508387110656677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.504993265115762</v>
+        <v>0.495270853285205</v>
       </c>
       <c r="C8" t="n">
-        <v>0.583469355896063</v>
+        <v>0.550096750242733</v>
       </c>
       <c r="D8" t="n">
-        <v>0.717377692601625</v>
+        <v>0.469964960430199</v>
       </c>
       <c r="E8" t="n">
-        <v>0.357057044025151</v>
+        <v>0.605037317209618</v>
       </c>
       <c r="F8" t="n">
-        <v>0.462796314716611</v>
+        <v>0.589993175379146</v>
       </c>
       <c r="G8" t="n">
-        <v>0.623559907060539</v>
+        <v>0.467458143019112</v>
       </c>
       <c r="H8" t="n">
-        <v>0.606486393370469</v>
+        <v>0.627870216900282</v>
       </c>
       <c r="I8" t="n">
-        <v>0.613264094018246</v>
+        <v>0.515906561398494</v>
       </c>
       <c r="J8" t="n">
-        <v>0.553730200515503</v>
+        <v>0.555673638490509</v>
       </c>
       <c r="K8" t="n">
-        <v>0.445953781221646</v>
+        <v>0.329339307176259</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.650632121547245</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.484262959232507</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.487874248052629</v>
+        <v>0.493228653586174</v>
       </c>
       <c r="C9" t="n">
-        <v>0.595154524445759</v>
+        <v>0.557140463652387</v>
       </c>
       <c r="D9" t="n">
-        <v>0.621322457797501</v>
+        <v>0.52156564324331</v>
       </c>
       <c r="E9" t="n">
-        <v>0.329441880213049</v>
+        <v>0.6206210244488</v>
       </c>
       <c r="F9" t="n">
-        <v>0.47078213918603</v>
+        <v>0.65211556133218</v>
       </c>
       <c r="G9" t="n">
-        <v>0.646631990302939</v>
+        <v>0.422673275491659</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6380347446908</v>
+        <v>0.544448352012716</v>
       </c>
       <c r="I9" t="n">
-        <v>0.595240379726788</v>
+        <v>0.533295488206454</v>
       </c>
       <c r="J9" t="n">
-        <v>0.487774192450365</v>
+        <v>0.4552960177345</v>
       </c>
       <c r="K9" t="n">
-        <v>0.473556822307785</v>
+        <v>0.419357119606837</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.509171281484115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.444727775155038</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.451325822659947</v>
+        <v>0.492182376808889</v>
       </c>
       <c r="C10" t="n">
-        <v>0.471459677276871</v>
+        <v>0.573163633671365</v>
       </c>
       <c r="D10" t="n">
-        <v>0.65214667485297</v>
+        <v>0.509372409713107</v>
       </c>
       <c r="E10" t="n">
-        <v>0.353936608334891</v>
+        <v>0.624280905426352</v>
       </c>
       <c r="F10" t="n">
-        <v>0.581583102520634</v>
+        <v>0.663955672347498</v>
       </c>
       <c r="G10" t="n">
-        <v>0.731935012661342</v>
+        <v>0.485048778276123</v>
       </c>
       <c r="H10" t="n">
-        <v>0.58096371013567</v>
+        <v>0.582095771355407</v>
       </c>
       <c r="I10" t="n">
-        <v>0.443698103915299</v>
+        <v>0.538113086766593</v>
       </c>
       <c r="J10" t="n">
-        <v>0.545867335374603</v>
+        <v>0.567660471152259</v>
       </c>
       <c r="K10" t="n">
-        <v>0.51504827433869</v>
+        <v>0.354224821002379</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.616915344782939</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.439932527328607</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.44535635556981</v>
+        <v>0.384477829985849</v>
       </c>
       <c r="C11" t="n">
-        <v>0.440400057268869</v>
+        <v>0.427888550402518</v>
       </c>
       <c r="D11" t="n">
-        <v>0.470166332097819</v>
+        <v>0.424957739509933</v>
       </c>
       <c r="E11" t="n">
-        <v>0.262117365276392</v>
+        <v>0.456227854751011</v>
       </c>
       <c r="F11" t="n">
-        <v>0.35518438881217</v>
+        <v>0.445312171675404</v>
       </c>
       <c r="G11" t="n">
-        <v>0.514999560707877</v>
+        <v>0.366191972542533</v>
       </c>
       <c r="H11" t="n">
-        <v>0.463182670189781</v>
+        <v>0.425789666926902</v>
       </c>
       <c r="I11" t="n">
-        <v>0.445624352945564</v>
+        <v>0.414449597171505</v>
       </c>
       <c r="J11" t="n">
-        <v>0.438433487371958</v>
+        <v>0.458892147283621</v>
       </c>
       <c r="K11" t="n">
-        <v>0.416102010001339</v>
+        <v>0.260867070642096</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.505862859114708</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.372594690507678</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -65,13 +65,18 @@
 vulnerable countries cope with cliamte Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
+allocating revenues to countries based on sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members
+(e.g. India, Brazil, AU), restrict veto use</t>
+  </si>
+  <si>
     <t xml:space="preserve">International levy on shipping carbon emissions,
 returned to countries based on population</t>
   </si>
   <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
     <t xml:space="preserve">Debt relief for vulnerable countries, suspending
 payments until they are more able to repay</t>
   </si>
@@ -80,12 +85,7 @@
 year in climate finance for developing countries</t>
   </si>
   <si>
-    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
-allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members
-(e.g. India, Brazil, AU), restrict veto use</t>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -467,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.657328419412682</v>
+        <v>0.639523596257434</v>
       </c>
       <c r="C2" t="n">
-        <v>0.729257548688762</v>
+        <v>0.714647427300885</v>
       </c>
       <c r="D2" t="n">
-        <v>0.733005573649197</v>
+        <v>0.760216908231021</v>
       </c>
       <c r="E2" t="n">
-        <v>0.743160675449664</v>
+        <v>0.711614456662385</v>
       </c>
       <c r="F2" t="n">
-        <v>0.794715102903548</v>
+        <v>0.721374474075014</v>
       </c>
       <c r="G2" t="n">
-        <v>0.670561410886709</v>
+        <v>0.656518806818978</v>
       </c>
       <c r="H2" t="n">
-        <v>0.70644083694007</v>
+        <v>0.670225368457153</v>
       </c>
       <c r="I2" t="n">
-        <v>0.708688702667237</v>
+        <v>0.734659117617481</v>
       </c>
       <c r="J2" t="n">
-        <v>0.682870894639201</v>
+        <v>0.696595407352933</v>
       </c>
       <c r="K2" t="n">
-        <v>0.542207856991393</v>
+        <v>0.539832036573605</v>
       </c>
       <c r="L2" t="n">
-        <v>0.68664014455803</v>
+        <v>0.667165039234262</v>
       </c>
       <c r="M2" t="n">
-        <v>0.615340979904912</v>
+        <v>0.592907655329738</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.587693578052105</v>
+        <v>0.548593718903696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.639885383145108</v>
+        <v>0.609411900910099</v>
       </c>
       <c r="D3" t="n">
-        <v>0.573543348123137</v>
+        <v>0.571702669945876</v>
       </c>
       <c r="E3" t="n">
-        <v>0.694416317980604</v>
+        <v>0.633993906948384</v>
       </c>
       <c r="F3" t="n">
-        <v>0.754782770504471</v>
+        <v>0.720714852722952</v>
       </c>
       <c r="G3" t="n">
-        <v>0.482719457508465</v>
+        <v>0.523264650354997</v>
       </c>
       <c r="H3" t="n">
-        <v>0.627807763558134</v>
+        <v>0.57117771430659</v>
       </c>
       <c r="I3" t="n">
-        <v>0.630301297843594</v>
+        <v>0.591715489924236</v>
       </c>
       <c r="J3" t="n">
-        <v>0.687950192692246</v>
+        <v>0.595925713645376</v>
       </c>
       <c r="K3" t="n">
-        <v>0.452287062889628</v>
+        <v>0.442517610029599</v>
       </c>
       <c r="L3" t="n">
-        <v>0.645718038522661</v>
+        <v>0.694050083484726</v>
       </c>
       <c r="M3" t="n">
-        <v>0.575954789632536</v>
+        <v>0.509814974565628</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.566850864091091</v>
+        <v>0.513566502912217</v>
       </c>
       <c r="C4" t="n">
-        <v>0.618399842186938</v>
+        <v>0.582761054675929</v>
       </c>
       <c r="D4" t="n">
-        <v>0.542455620458305</v>
+        <v>0.546337782692705</v>
       </c>
       <c r="E4" t="n">
-        <v>0.634449110044495</v>
+        <v>0.555173966699598</v>
       </c>
       <c r="F4" t="n">
-        <v>0.705728899646891</v>
+        <v>0.673147592588228</v>
       </c>
       <c r="G4" t="n">
-        <v>0.511920068985261</v>
+        <v>0.578882861613067</v>
       </c>
       <c r="H4" t="n">
-        <v>0.680291736829537</v>
+        <v>0.600450838303487</v>
       </c>
       <c r="I4" t="n">
-        <v>0.606823662580171</v>
+        <v>0.55742271658692</v>
       </c>
       <c r="J4" t="n">
-        <v>0.652290556731197</v>
+        <v>0.615970390550763</v>
       </c>
       <c r="K4" t="n">
-        <v>0.462217875088911</v>
+        <v>0.432964119214102</v>
       </c>
       <c r="L4" t="n">
-        <v>0.707610040379386</v>
+        <v>0.753385832096944</v>
       </c>
       <c r="M4" t="n">
-        <v>0.535056423753802</v>
+        <v>0.44798557752162</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.514304792358419</v>
+        <v>0.507716120136043</v>
       </c>
       <c r="C5" t="n">
-        <v>0.585203429869476</v>
+        <v>0.575555083666519</v>
       </c>
       <c r="D5" t="n">
-        <v>0.64578611801631</v>
+        <v>0.584161637565189</v>
       </c>
       <c r="E5" t="n">
-        <v>0.535680898038048</v>
+        <v>0.563477421700551</v>
       </c>
       <c r="F5" t="n">
-        <v>0.684234764950132</v>
+        <v>0.700050276588798</v>
       </c>
       <c r="G5" t="n">
-        <v>0.439127208584077</v>
+        <v>0.483841800004679</v>
       </c>
       <c r="H5" t="n">
-        <v>0.567156775821967</v>
+        <v>0.506322624537739</v>
       </c>
       <c r="I5" t="n">
-        <v>0.60521553938405</v>
+        <v>0.575933181477317</v>
       </c>
       <c r="J5" t="n">
-        <v>0.537458700152771</v>
+        <v>0.536907542802474</v>
       </c>
       <c r="K5" t="n">
-        <v>0.332738544873125</v>
+        <v>0.411066335191595</v>
       </c>
       <c r="L5" t="n">
-        <v>0.659948880150664</v>
+        <v>0.526814648666729</v>
       </c>
       <c r="M5" t="n">
-        <v>0.491121618963963</v>
+        <v>0.468615840365652</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +631,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.509474426015787</v>
+        <v>0.481306022051756</v>
       </c>
       <c r="C6" t="n">
-        <v>0.577283884007034</v>
+        <v>0.565364175049889</v>
       </c>
       <c r="D6" t="n">
-        <v>0.512994447244161</v>
+        <v>0.571058139039497</v>
       </c>
       <c r="E6" t="n">
-        <v>0.640300388435114</v>
+        <v>0.543148271011716</v>
       </c>
       <c r="F6" t="n">
-        <v>0.633466713909412</v>
+        <v>0.651483188173009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.444020045095075</v>
+        <v>0.531470188798293</v>
       </c>
       <c r="H6" t="n">
-        <v>0.621259380108722</v>
+        <v>0.549022440065762</v>
       </c>
       <c r="I6" t="n">
-        <v>0.567436345334036</v>
+        <v>0.543286055711266</v>
       </c>
       <c r="J6" t="n">
-        <v>0.519227769130614</v>
+        <v>0.540361542614535</v>
       </c>
       <c r="K6" t="n">
-        <v>0.351070840333438</v>
+        <v>0.338357731510804</v>
       </c>
       <c r="L6" t="n">
-        <v>0.681802018023999</v>
+        <v>0.623479919133029</v>
       </c>
       <c r="M6" t="n">
-        <v>0.477712793238314</v>
+        <v>0.431391714573596</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +672,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.501292221688328</v>
+        <v>0.475306917630272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.529649601870789</v>
+        <v>0.54090972184702</v>
       </c>
       <c r="D7" t="n">
-        <v>0.43128080993381</v>
+        <v>0.587532865034764</v>
       </c>
       <c r="E7" t="n">
-        <v>0.489986220196691</v>
+        <v>0.489635744270392</v>
       </c>
       <c r="F7" t="n">
-        <v>0.638561001393627</v>
+        <v>0.6033196361275</v>
       </c>
       <c r="G7" t="n">
-        <v>0.589551081112913</v>
+        <v>0.47818971932205</v>
       </c>
       <c r="H7" t="n">
-        <v>0.546527816585993</v>
+        <v>0.559751673437498</v>
       </c>
       <c r="I7" t="n">
-        <v>0.531868238738193</v>
+        <v>0.515121331316591</v>
       </c>
       <c r="J7" t="n">
-        <v>0.49990790930802</v>
+        <v>0.623426625932709</v>
       </c>
       <c r="K7" t="n">
-        <v>0.353652333734055</v>
+        <v>0.297223043164068</v>
       </c>
       <c r="L7" t="n">
-        <v>0.727746532051524</v>
+        <v>0.587730078986065</v>
       </c>
       <c r="M7" t="n">
-        <v>0.508387110656677</v>
+        <v>0.461239121127993</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +713,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.495270853285205</v>
+        <v>0.472743686798543</v>
       </c>
       <c r="C8" t="n">
-        <v>0.550096750242733</v>
+        <v>0.527935572537552</v>
       </c>
       <c r="D8" t="n">
-        <v>0.469964960430199</v>
+        <v>0.4854920929377</v>
       </c>
       <c r="E8" t="n">
-        <v>0.605037317209618</v>
+        <v>0.442249078996757</v>
       </c>
       <c r="F8" t="n">
-        <v>0.589993175379146</v>
+        <v>0.645996488666307</v>
       </c>
       <c r="G8" t="n">
-        <v>0.467458143019112</v>
+        <v>0.544387835098007</v>
       </c>
       <c r="H8" t="n">
-        <v>0.627870216900282</v>
+        <v>0.540958846658446</v>
       </c>
       <c r="I8" t="n">
-        <v>0.515906561398494</v>
+        <v>0.553181539353454</v>
       </c>
       <c r="J8" t="n">
-        <v>0.555673638490509</v>
+        <v>0.555914125267811</v>
       </c>
       <c r="K8" t="n">
-        <v>0.329339307176259</v>
+        <v>0.376731557918259</v>
       </c>
       <c r="L8" t="n">
-        <v>0.650632121547245</v>
+        <v>0.703533312582253</v>
       </c>
       <c r="M8" t="n">
-        <v>0.484262959232507</v>
+        <v>0.42896676124685</v>
       </c>
     </row>
     <row r="9">
@@ -754,40 +754,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.493228653586174</v>
+        <v>0.469137222760563</v>
       </c>
       <c r="C9" t="n">
-        <v>0.557140463652387</v>
+        <v>0.532056800242416</v>
       </c>
       <c r="D9" t="n">
-        <v>0.52156564324331</v>
+        <v>0.504519811190039</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6206210244488</v>
+        <v>0.548398226426088</v>
       </c>
       <c r="F9" t="n">
-        <v>0.65211556133218</v>
+        <v>0.616413748823215</v>
       </c>
       <c r="G9" t="n">
-        <v>0.422673275491659</v>
+        <v>0.478121732289563</v>
       </c>
       <c r="H9" t="n">
-        <v>0.544448352012716</v>
+        <v>0.526690159959786</v>
       </c>
       <c r="I9" t="n">
-        <v>0.533295488206454</v>
+        <v>0.490203733197092</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4552960177345</v>
+        <v>0.569958960557896</v>
       </c>
       <c r="K9" t="n">
-        <v>0.419357119606837</v>
+        <v>0.317988382275004</v>
       </c>
       <c r="L9" t="n">
-        <v>0.509171281484115</v>
+        <v>0.670610410912845</v>
       </c>
       <c r="M9" t="n">
-        <v>0.444727775155038</v>
+        <v>0.44020607691151</v>
       </c>
     </row>
     <row r="10">
@@ -795,40 +795,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.492182376808889</v>
+        <v>0.455094672549132</v>
       </c>
       <c r="C10" t="n">
-        <v>0.573163633671365</v>
+        <v>0.507632140182693</v>
       </c>
       <c r="D10" t="n">
-        <v>0.509372409713107</v>
+        <v>0.507745734228467</v>
       </c>
       <c r="E10" t="n">
-        <v>0.624280905426352</v>
+        <v>0.470066860153881</v>
       </c>
       <c r="F10" t="n">
-        <v>0.663955672347498</v>
+        <v>0.572453993689407</v>
       </c>
       <c r="G10" t="n">
-        <v>0.485048778276123</v>
+        <v>0.445768378720621</v>
       </c>
       <c r="H10" t="n">
-        <v>0.582095771355407</v>
+        <v>0.573544878347036</v>
       </c>
       <c r="I10" t="n">
-        <v>0.538113086766593</v>
+        <v>0.486746721285491</v>
       </c>
       <c r="J10" t="n">
-        <v>0.567660471152259</v>
+        <v>0.491035812005062</v>
       </c>
       <c r="K10" t="n">
-        <v>0.354224821002379</v>
+        <v>0.315183605240312</v>
       </c>
       <c r="L10" t="n">
-        <v>0.616915344782939</v>
+        <v>0.687439527280845</v>
       </c>
       <c r="M10" t="n">
-        <v>0.439932527328607</v>
+        <v>0.430578936066726</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.384477829985849</v>
+        <v>0.367946268310782</v>
       </c>
       <c r="C11" t="n">
-        <v>0.427888550402518</v>
+        <v>0.437323962697836</v>
       </c>
       <c r="D11" t="n">
-        <v>0.424957739509933</v>
+        <v>0.462529191523083</v>
       </c>
       <c r="E11" t="n">
-        <v>0.456227854751011</v>
+        <v>0.458588637908095</v>
       </c>
       <c r="F11" t="n">
-        <v>0.445312171675404</v>
+        <v>0.43453072403282</v>
       </c>
       <c r="G11" t="n">
-        <v>0.366191972542533</v>
+        <v>0.413538803089163</v>
       </c>
       <c r="H11" t="n">
-        <v>0.425789666926902</v>
+        <v>0.42248056637244</v>
       </c>
       <c r="I11" t="n">
-        <v>0.414449597171505</v>
+        <v>0.41016502144939</v>
       </c>
       <c r="J11" t="n">
-        <v>0.458892147283621</v>
+        <v>0.43652539655125</v>
       </c>
       <c r="K11" t="n">
-        <v>0.260867070642096</v>
+        <v>0.257152149158702</v>
       </c>
       <c r="L11" t="n">
-        <v>0.505862859114708</v>
+        <v>0.522996918486557</v>
       </c>
       <c r="M11" t="n">
-        <v>0.372594690507678</v>
+        <v>0.320805125004649</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -69,16 +69,16 @@
 allocating revenues to countries based on sales</t>
   </si>
   <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members
 (e.g. India, Brazil, AU), restrict veto use</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on shipping carbon emissions,
 returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
@@ -467,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.639523596257434</v>
+        <v>0.646398384602535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.714647427300885</v>
+        <v>0.706984167274626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.760216908231021</v>
+        <v>0.75378479149565</v>
       </c>
       <c r="E2" t="n">
-        <v>0.711614456662385</v>
+        <v>0.712010634121568</v>
       </c>
       <c r="F2" t="n">
-        <v>0.721374474075014</v>
+        <v>0.722854031749278</v>
       </c>
       <c r="G2" t="n">
-        <v>0.656518806818978</v>
+        <v>0.657137233883983</v>
       </c>
       <c r="H2" t="n">
-        <v>0.670225368457153</v>
+        <v>0.668422887272544</v>
       </c>
       <c r="I2" t="n">
-        <v>0.734659117617481</v>
+        <v>0.703625953751163</v>
       </c>
       <c r="J2" t="n">
-        <v>0.696595407352933</v>
+        <v>0.639087298693035</v>
       </c>
       <c r="K2" t="n">
-        <v>0.539832036573605</v>
+        <v>0.539752716934604</v>
       </c>
       <c r="L2" t="n">
-        <v>0.667165039234262</v>
+        <v>0.669231528187866</v>
       </c>
       <c r="M2" t="n">
-        <v>0.592907655329738</v>
+        <v>0.618460727569318</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.548593718903696</v>
+        <v>0.569988455421541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.609411900910099</v>
+        <v>0.608587393359044</v>
       </c>
       <c r="D3" t="n">
-        <v>0.571702669945876</v>
+        <v>0.563556816911053</v>
       </c>
       <c r="E3" t="n">
-        <v>0.633993906948384</v>
+        <v>0.631019488527634</v>
       </c>
       <c r="F3" t="n">
-        <v>0.720714852722952</v>
+        <v>0.722882434581042</v>
       </c>
       <c r="G3" t="n">
-        <v>0.523264650354997</v>
+        <v>0.516960646457556</v>
       </c>
       <c r="H3" t="n">
-        <v>0.57117771430659</v>
+        <v>0.575244239983559</v>
       </c>
       <c r="I3" t="n">
-        <v>0.591715489924236</v>
+        <v>0.59634354691841</v>
       </c>
       <c r="J3" t="n">
-        <v>0.595925713645376</v>
+        <v>0.597605492493167</v>
       </c>
       <c r="K3" t="n">
-        <v>0.442517610029599</v>
+        <v>0.442410038680248</v>
       </c>
       <c r="L3" t="n">
-        <v>0.694050083484726</v>
+        <v>0.693577341116261</v>
       </c>
       <c r="M3" t="n">
-        <v>0.509814974565628</v>
+        <v>0.565659044137537</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.513566502912217</v>
+        <v>0.535970237969507</v>
       </c>
       <c r="C4" t="n">
-        <v>0.582761054675929</v>
+        <v>0.577345536712457</v>
       </c>
       <c r="D4" t="n">
-        <v>0.546337782692705</v>
+        <v>0.542085412118249</v>
       </c>
       <c r="E4" t="n">
-        <v>0.555173966699598</v>
+        <v>0.561257935102154</v>
       </c>
       <c r="F4" t="n">
-        <v>0.673147592588228</v>
+        <v>0.678060758485982</v>
       </c>
       <c r="G4" t="n">
-        <v>0.578882861613067</v>
+        <v>0.573529678713103</v>
       </c>
       <c r="H4" t="n">
-        <v>0.600450838303487</v>
+        <v>0.609723738169597</v>
       </c>
       <c r="I4" t="n">
-        <v>0.55742271658692</v>
+        <v>0.526244743513036</v>
       </c>
       <c r="J4" t="n">
-        <v>0.615970390550763</v>
+        <v>0.506307775403428</v>
       </c>
       <c r="K4" t="n">
-        <v>0.432964119214102</v>
+        <v>0.433498093546114</v>
       </c>
       <c r="L4" t="n">
-        <v>0.753385832096944</v>
+        <v>0.751038045965779</v>
       </c>
       <c r="M4" t="n">
-        <v>0.44798557752162</v>
+        <v>0.511082514215293</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.507716120136043</v>
+        <v>0.513820326609533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.575555083666519</v>
+        <v>0.575587749788999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.584161637565189</v>
+        <v>0.587299433812439</v>
       </c>
       <c r="E5" t="n">
-        <v>0.563477421700551</v>
+        <v>0.565853413765564</v>
       </c>
       <c r="F5" t="n">
-        <v>0.700050276588798</v>
+        <v>0.7047605877825</v>
       </c>
       <c r="G5" t="n">
-        <v>0.483841800004679</v>
+        <v>0.478469450130154</v>
       </c>
       <c r="H5" t="n">
-        <v>0.506322624537739</v>
+        <v>0.509126067468594</v>
       </c>
       <c r="I5" t="n">
-        <v>0.575933181477317</v>
+        <v>0.56758835295828</v>
       </c>
       <c r="J5" t="n">
-        <v>0.536907542802474</v>
+        <v>0.513804487931046</v>
       </c>
       <c r="K5" t="n">
-        <v>0.411066335191595</v>
+        <v>0.412161506309003</v>
       </c>
       <c r="L5" t="n">
-        <v>0.526814648666729</v>
+        <v>0.524426968209898</v>
       </c>
       <c r="M5" t="n">
-        <v>0.468615840365652</v>
+        <v>0.483720125330895</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +631,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.481306022051756</v>
+        <v>0.489260515672743</v>
       </c>
       <c r="C6" t="n">
-        <v>0.565364175049889</v>
+        <v>0.516027076074607</v>
       </c>
       <c r="D6" t="n">
-        <v>0.571058139039497</v>
+        <v>0.470642956458167</v>
       </c>
       <c r="E6" t="n">
-        <v>0.543148271011716</v>
+        <v>0.44101908981112</v>
       </c>
       <c r="F6" t="n">
-        <v>0.651483188173009</v>
+        <v>0.643529700683698</v>
       </c>
       <c r="G6" t="n">
-        <v>0.531470188798293</v>
+        <v>0.543791242040246</v>
       </c>
       <c r="H6" t="n">
-        <v>0.549022440065762</v>
+        <v>0.54820311535952</v>
       </c>
       <c r="I6" t="n">
-        <v>0.543286055711266</v>
+        <v>0.504402372170599</v>
       </c>
       <c r="J6" t="n">
-        <v>0.540361542614535</v>
+        <v>0.485267770180977</v>
       </c>
       <c r="K6" t="n">
-        <v>0.338357731510804</v>
+        <v>0.377163318090532</v>
       </c>
       <c r="L6" t="n">
-        <v>0.623479919133029</v>
+        <v>0.702188195667517</v>
       </c>
       <c r="M6" t="n">
-        <v>0.431391714573596</v>
+        <v>0.484363342964927</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +672,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.475306917630272</v>
+        <v>0.483293565015268</v>
       </c>
       <c r="C7" t="n">
-        <v>0.54090972184702</v>
+        <v>0.557787572804168</v>
       </c>
       <c r="D7" t="n">
-        <v>0.587532865034764</v>
+        <v>0.558559874267616</v>
       </c>
       <c r="E7" t="n">
-        <v>0.489635744270392</v>
+        <v>0.540773234707184</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6033196361275</v>
+        <v>0.64024183051084</v>
       </c>
       <c r="G7" t="n">
-        <v>0.47818971932205</v>
+        <v>0.531526548409446</v>
       </c>
       <c r="H7" t="n">
-        <v>0.559751673437498</v>
+        <v>0.553610608714585</v>
       </c>
       <c r="I7" t="n">
-        <v>0.515121331316591</v>
+        <v>0.525713015919814</v>
       </c>
       <c r="J7" t="n">
-        <v>0.623426625932709</v>
+        <v>0.5079409609805</v>
       </c>
       <c r="K7" t="n">
-        <v>0.297223043164068</v>
+        <v>0.339141299890401</v>
       </c>
       <c r="L7" t="n">
-        <v>0.587730078986065</v>
+        <v>0.614588178676978</v>
       </c>
       <c r="M7" t="n">
-        <v>0.461239121127993</v>
+        <v>0.445050156999209</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +713,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.472743686798543</v>
+        <v>0.481908152419055</v>
       </c>
       <c r="C8" t="n">
-        <v>0.527935572537552</v>
+        <v>0.539979650075497</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4854920929377</v>
+        <v>0.581080470626023</v>
       </c>
       <c r="E8" t="n">
-        <v>0.442249078996757</v>
+        <v>0.490133107722529</v>
       </c>
       <c r="F8" t="n">
-        <v>0.645996488666307</v>
+        <v>0.62042725469116</v>
       </c>
       <c r="G8" t="n">
-        <v>0.544387835098007</v>
+        <v>0.479917426007941</v>
       </c>
       <c r="H8" t="n">
-        <v>0.540958846658446</v>
+        <v>0.56628338385857</v>
       </c>
       <c r="I8" t="n">
-        <v>0.553181539353454</v>
+        <v>0.500108065123945</v>
       </c>
       <c r="J8" t="n">
-        <v>0.555914125267811</v>
+        <v>0.555038250062815</v>
       </c>
       <c r="K8" t="n">
-        <v>0.376731557918259</v>
+        <v>0.298293685791564</v>
       </c>
       <c r="L8" t="n">
-        <v>0.703533312582253</v>
+        <v>0.589083695649622</v>
       </c>
       <c r="M8" t="n">
-        <v>0.42896676124685</v>
+        <v>0.478982931272843</v>
       </c>
     </row>
     <row r="9">
@@ -754,40 +754,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.469137222760563</v>
+        <v>0.47038204189675</v>
       </c>
       <c r="C9" t="n">
-        <v>0.532056800242416</v>
+        <v>0.530483044577468</v>
       </c>
       <c r="D9" t="n">
-        <v>0.504519811190039</v>
+        <v>0.502718195309783</v>
       </c>
       <c r="E9" t="n">
-        <v>0.548398226426088</v>
+        <v>0.548287740109647</v>
       </c>
       <c r="F9" t="n">
-        <v>0.616413748823215</v>
+        <v>0.62240720661373</v>
       </c>
       <c r="G9" t="n">
-        <v>0.478121732289563</v>
+        <v>0.481945890743416</v>
       </c>
       <c r="H9" t="n">
-        <v>0.526690159959786</v>
+        <v>0.530102000016276</v>
       </c>
       <c r="I9" t="n">
-        <v>0.490203733197092</v>
+        <v>0.480045951746598</v>
       </c>
       <c r="J9" t="n">
-        <v>0.569958960557896</v>
+        <v>0.502451890819229</v>
       </c>
       <c r="K9" t="n">
-        <v>0.317988382275004</v>
+        <v>0.317535533584046</v>
       </c>
       <c r="L9" t="n">
-        <v>0.670610410912845</v>
+        <v>0.669274437328965</v>
       </c>
       <c r="M9" t="n">
-        <v>0.44020607691151</v>
+        <v>0.445532232522188</v>
       </c>
     </row>
     <row r="10">
@@ -795,40 +795,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.455094672549132</v>
+        <v>0.4643861244074</v>
       </c>
       <c r="C10" t="n">
-        <v>0.507632140182693</v>
+        <v>0.506482319141284</v>
       </c>
       <c r="D10" t="n">
-        <v>0.507745734228467</v>
+        <v>0.497249076558709</v>
       </c>
       <c r="E10" t="n">
-        <v>0.470066860153881</v>
+        <v>0.470001297986721</v>
       </c>
       <c r="F10" t="n">
-        <v>0.572453993689407</v>
+        <v>0.588575972921487</v>
       </c>
       <c r="G10" t="n">
-        <v>0.445768378720621</v>
+        <v>0.4481645319133</v>
       </c>
       <c r="H10" t="n">
-        <v>0.573544878347036</v>
+        <v>0.577859486499694</v>
       </c>
       <c r="I10" t="n">
-        <v>0.486746721285491</v>
+        <v>0.475212330933506</v>
       </c>
       <c r="J10" t="n">
-        <v>0.491035812005062</v>
+        <v>0.444381309237282</v>
       </c>
       <c r="K10" t="n">
-        <v>0.315183605240312</v>
+        <v>0.316658341782866</v>
       </c>
       <c r="L10" t="n">
-        <v>0.687439527280845</v>
+        <v>0.683051771994671</v>
       </c>
       <c r="M10" t="n">
-        <v>0.430578936066726</v>
+        <v>0.455737231983135</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.367946268310782</v>
+        <v>0.39012672781079</v>
       </c>
       <c r="C11" t="n">
-        <v>0.437323962697836</v>
+        <v>0.436967254670948</v>
       </c>
       <c r="D11" t="n">
-        <v>0.462529191523083</v>
+        <v>0.452068219505415</v>
       </c>
       <c r="E11" t="n">
-        <v>0.458588637908095</v>
+        <v>0.455098052194745</v>
       </c>
       <c r="F11" t="n">
-        <v>0.43453072403282</v>
+        <v>0.45210970624218</v>
       </c>
       <c r="G11" t="n">
-        <v>0.413538803089163</v>
+        <v>0.408101474316656</v>
       </c>
       <c r="H11" t="n">
-        <v>0.42248056637244</v>
+        <v>0.445567110247602</v>
       </c>
       <c r="I11" t="n">
-        <v>0.41016502144939</v>
+        <v>0.400758193991081</v>
       </c>
       <c r="J11" t="n">
-        <v>0.43652539655125</v>
+        <v>0.379771176793584</v>
       </c>
       <c r="K11" t="n">
-        <v>0.257152149158702</v>
+        <v>0.257582767085632</v>
       </c>
       <c r="L11" t="n">
-        <v>0.522996918486557</v>
+        <v>0.519258512614758</v>
       </c>
       <c r="M11" t="n">
-        <v>0.320805125004649</v>
+        <v>0.378130413960264</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -77,8 +77,8 @@
 (e.g. India, Brazil, AU), restrict veto use</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
+    <t xml:space="preserve">International levy on carbon emissions from
+shipping, returned to countries based on population</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
@@ -88,8 +88,8 @@
     <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on aviation carbon emissions, raising
-prices by 30%, returned to countries based on population</t>
+    <t xml:space="preserve">International levy on carbon emissions from
+aviation, returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -467,31 +467,31 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.646398384602535</v>
+        <v>0.641429835065082</v>
       </c>
       <c r="C2" t="n">
-        <v>0.706984167274626</v>
+        <v>0.707297297619096</v>
       </c>
       <c r="D2" t="n">
         <v>0.75378479149565</v>
       </c>
       <c r="E2" t="n">
-        <v>0.712010634121568</v>
+        <v>0.714162841345846</v>
       </c>
       <c r="F2" t="n">
-        <v>0.722854031749278</v>
+        <v>0.73026657655124</v>
       </c>
       <c r="G2" t="n">
         <v>0.657137233883983</v>
       </c>
       <c r="H2" t="n">
-        <v>0.668422887272544</v>
+        <v>0.666489214060063</v>
       </c>
       <c r="I2" t="n">
-        <v>0.703625953751163</v>
+        <v>0.696735427720171</v>
       </c>
       <c r="J2" t="n">
-        <v>0.639087298693035</v>
+        <v>0.641644761960389</v>
       </c>
       <c r="K2" t="n">
         <v>0.539752716934604</v>
@@ -500,7 +500,7 @@
         <v>0.669231528187866</v>
       </c>
       <c r="M2" t="n">
-        <v>0.618460727569318</v>
+        <v>0.605559915911804</v>
       </c>
     </row>
     <row r="3">
@@ -508,31 +508,31 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.569988455421541</v>
+        <v>0.559778445951765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.608587393359044</v>
+        <v>0.610496410056237</v>
       </c>
       <c r="D3" t="n">
         <v>0.563556816911053</v>
       </c>
       <c r="E3" t="n">
-        <v>0.631019488527634</v>
+        <v>0.635106101306739</v>
       </c>
       <c r="F3" t="n">
-        <v>0.722882434581042</v>
+        <v>0.722442422826453</v>
       </c>
       <c r="G3" t="n">
         <v>0.516960646457556</v>
       </c>
       <c r="H3" t="n">
-        <v>0.575244239983559</v>
+        <v>0.574229454888718</v>
       </c>
       <c r="I3" t="n">
-        <v>0.59634354691841</v>
+        <v>0.601904349737365</v>
       </c>
       <c r="J3" t="n">
-        <v>0.597605492493167</v>
+        <v>0.608015149517196</v>
       </c>
       <c r="K3" t="n">
         <v>0.442410038680248</v>
@@ -541,7 +541,7 @@
         <v>0.693577341116261</v>
       </c>
       <c r="M3" t="n">
-        <v>0.565659044137537</v>
+        <v>0.537461991769193</v>
       </c>
     </row>
     <row r="4">
@@ -549,31 +549,31 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.535970237969507</v>
+        <v>0.528131005253617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.577345536712457</v>
+        <v>0.575747579822426</v>
       </c>
       <c r="D4" t="n">
         <v>0.542085412118249</v>
       </c>
       <c r="E4" t="n">
-        <v>0.561257935102154</v>
+        <v>0.5572217103025</v>
       </c>
       <c r="F4" t="n">
-        <v>0.678060758485982</v>
+        <v>0.675879205040903</v>
       </c>
       <c r="G4" t="n">
         <v>0.573529678713103</v>
       </c>
       <c r="H4" t="n">
-        <v>0.609723738169597</v>
+        <v>0.609638681756888</v>
       </c>
       <c r="I4" t="n">
-        <v>0.526244743513036</v>
+        <v>0.523498416770898</v>
       </c>
       <c r="J4" t="n">
-        <v>0.506307775403428</v>
+        <v>0.5052106852238</v>
       </c>
       <c r="K4" t="n">
         <v>0.433498093546114</v>
@@ -582,7 +582,7 @@
         <v>0.751038045965779</v>
       </c>
       <c r="M4" t="n">
-        <v>0.511082514215293</v>
+        <v>0.492840845029073</v>
       </c>
     </row>
     <row r="5">
@@ -590,31 +590,31 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.513820326609533</v>
+        <v>0.506620824122519</v>
       </c>
       <c r="C5" t="n">
-        <v>0.575587749788999</v>
+        <v>0.57440811427785</v>
       </c>
       <c r="D5" t="n">
         <v>0.587299433812439</v>
       </c>
       <c r="E5" t="n">
-        <v>0.565853413765564</v>
+        <v>0.564106619615701</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7047605877825</v>
+        <v>0.7046311190567</v>
       </c>
       <c r="G5" t="n">
         <v>0.478469450130154</v>
       </c>
       <c r="H5" t="n">
-        <v>0.509126067468594</v>
+        <v>0.512197892272131</v>
       </c>
       <c r="I5" t="n">
-        <v>0.56758835295828</v>
+        <v>0.56309355733984</v>
       </c>
       <c r="J5" t="n">
-        <v>0.513804487931046</v>
+        <v>0.494196842127946</v>
       </c>
       <c r="K5" t="n">
         <v>0.412161506309003</v>
@@ -623,7 +623,7 @@
         <v>0.524426968209898</v>
       </c>
       <c r="M5" t="n">
-        <v>0.483720125330895</v>
+        <v>0.46673308451189</v>
       </c>
     </row>
     <row r="6">
@@ -631,31 +631,31 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.489260515672743</v>
+        <v>0.484261207557241</v>
       </c>
       <c r="C6" t="n">
-        <v>0.516027076074607</v>
+        <v>0.519130201535259</v>
       </c>
       <c r="D6" t="n">
         <v>0.470642956458167</v>
       </c>
       <c r="E6" t="n">
-        <v>0.44101908981112</v>
+        <v>0.446114225319128</v>
       </c>
       <c r="F6" t="n">
-        <v>0.643529700683698</v>
+        <v>0.643314299388634</v>
       </c>
       <c r="G6" t="n">
         <v>0.543791242040246</v>
       </c>
       <c r="H6" t="n">
-        <v>0.54820311535952</v>
+        <v>0.551159675299839</v>
       </c>
       <c r="I6" t="n">
-        <v>0.504402372170599</v>
+        <v>0.509704436234347</v>
       </c>
       <c r="J6" t="n">
-        <v>0.485267770180977</v>
+        <v>0.500308272514137</v>
       </c>
       <c r="K6" t="n">
         <v>0.377163318090532</v>
@@ -664,7 +664,7 @@
         <v>0.702188195667517</v>
       </c>
       <c r="M6" t="n">
-        <v>0.484363342964927</v>
+        <v>0.468198967508266</v>
       </c>
     </row>
     <row r="7">
@@ -672,31 +672,31 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.483293565015268</v>
+        <v>0.474555221520849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.557787572804168</v>
+        <v>0.555708220598884</v>
       </c>
       <c r="D7" t="n">
         <v>0.558559874267616</v>
       </c>
       <c r="E7" t="n">
-        <v>0.540773234707184</v>
+        <v>0.534278768701037</v>
       </c>
       <c r="F7" t="n">
-        <v>0.64024183051084</v>
+        <v>0.645728151292882</v>
       </c>
       <c r="G7" t="n">
         <v>0.531526548409446</v>
       </c>
       <c r="H7" t="n">
-        <v>0.553610608714585</v>
+        <v>0.55112468416054</v>
       </c>
       <c r="I7" t="n">
-        <v>0.525713015919814</v>
+        <v>0.518225500608209</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5079409609805</v>
+        <v>0.505811917684002</v>
       </c>
       <c r="K7" t="n">
         <v>0.339141299890401</v>
@@ -705,7 +705,7 @@
         <v>0.614588178676978</v>
       </c>
       <c r="M7" t="n">
-        <v>0.445050156999209</v>
+        <v>0.425142617416122</v>
       </c>
     </row>
     <row r="8">
@@ -713,31 +713,31 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.481908152419055</v>
+        <v>0.472824715437211</v>
       </c>
       <c r="C8" t="n">
-        <v>0.539979650075497</v>
+        <v>0.540299946211351</v>
       </c>
       <c r="D8" t="n">
         <v>0.581080470626023</v>
       </c>
       <c r="E8" t="n">
-        <v>0.490133107722529</v>
+        <v>0.496857570041854</v>
       </c>
       <c r="F8" t="n">
-        <v>0.62042725469116</v>
+        <v>0.619800311369099</v>
       </c>
       <c r="G8" t="n">
         <v>0.479917426007941</v>
       </c>
       <c r="H8" t="n">
-        <v>0.56628338385857</v>
+        <v>0.558330918672409</v>
       </c>
       <c r="I8" t="n">
-        <v>0.500108065123945</v>
+        <v>0.497838759171957</v>
       </c>
       <c r="J8" t="n">
-        <v>0.555038250062815</v>
+        <v>0.556626219046817</v>
       </c>
       <c r="K8" t="n">
         <v>0.298293685791564</v>
@@ -746,7 +746,7 @@
         <v>0.589083695649622</v>
       </c>
       <c r="M8" t="n">
-        <v>0.478982931272843</v>
+        <v>0.455496705043167</v>
       </c>
     </row>
     <row r="9">
@@ -754,31 +754,31 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.47038204189675</v>
+        <v>0.462641342682708</v>
       </c>
       <c r="C9" t="n">
-        <v>0.530483044577468</v>
+        <v>0.531544089711162</v>
       </c>
       <c r="D9" t="n">
         <v>0.502718195309783</v>
       </c>
       <c r="E9" t="n">
-        <v>0.548287740109647</v>
+        <v>0.552960459417584</v>
       </c>
       <c r="F9" t="n">
-        <v>0.62240720661373</v>
+        <v>0.618872027804475</v>
       </c>
       <c r="G9" t="n">
         <v>0.481945890743416</v>
       </c>
       <c r="H9" t="n">
-        <v>0.530102000016276</v>
+        <v>0.537649127413266</v>
       </c>
       <c r="I9" t="n">
-        <v>0.480045951746598</v>
+        <v>0.476785228732276</v>
       </c>
       <c r="J9" t="n">
-        <v>0.502451890819229</v>
+        <v>0.506852225988828</v>
       </c>
       <c r="K9" t="n">
         <v>0.317535533584046</v>
@@ -787,7 +787,7 @@
         <v>0.669274437328965</v>
       </c>
       <c r="M9" t="n">
-        <v>0.445532232522188</v>
+        <v>0.424685015980312</v>
       </c>
     </row>
     <row r="10">
@@ -795,31 +795,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4643861244074</v>
+        <v>0.462297616140644</v>
       </c>
       <c r="C10" t="n">
-        <v>0.506482319141284</v>
+        <v>0.506137637530579</v>
       </c>
       <c r="D10" t="n">
         <v>0.497249076558709</v>
       </c>
       <c r="E10" t="n">
-        <v>0.470001297986721</v>
+        <v>0.465849128624448</v>
       </c>
       <c r="F10" t="n">
-        <v>0.588575972921487</v>
+        <v>0.590941130825556</v>
       </c>
       <c r="G10" t="n">
         <v>0.4481645319133</v>
       </c>
       <c r="H10" t="n">
-        <v>0.577859486499694</v>
+        <v>0.578645281957274</v>
       </c>
       <c r="I10" t="n">
-        <v>0.475212330933506</v>
+        <v>0.472673951555849</v>
       </c>
       <c r="J10" t="n">
-        <v>0.444381309237282</v>
+        <v>0.457221224861334</v>
       </c>
       <c r="K10" t="n">
         <v>0.316658341782866</v>
@@ -828,7 +828,7 @@
         <v>0.683051771994671</v>
       </c>
       <c r="M10" t="n">
-        <v>0.455737231983135</v>
+        <v>0.45089740113607</v>
       </c>
     </row>
     <row r="11">
@@ -836,31 +836,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.39012672781079</v>
+        <v>0.378155663849609</v>
       </c>
       <c r="C11" t="n">
-        <v>0.436967254670948</v>
+        <v>0.436480247894097</v>
       </c>
       <c r="D11" t="n">
         <v>0.452068219505415</v>
       </c>
       <c r="E11" t="n">
-        <v>0.455098052194745</v>
+        <v>0.461168655543158</v>
       </c>
       <c r="F11" t="n">
-        <v>0.45210970624218</v>
+        <v>0.449848917369951</v>
       </c>
       <c r="G11" t="n">
         <v>0.408101474316656</v>
       </c>
       <c r="H11" t="n">
-        <v>0.445567110247602</v>
+        <v>0.433136778594272</v>
       </c>
       <c r="I11" t="n">
-        <v>0.400758193991081</v>
+        <v>0.400168087109578</v>
       </c>
       <c r="J11" t="n">
-        <v>0.379771176793584</v>
+        <v>0.389559550133144</v>
       </c>
       <c r="K11" t="n">
         <v>0.257582767085632</v>
@@ -869,7 +869,7 @@
         <v>0.519258512614758</v>
       </c>
       <c r="M11" t="n">
-        <v>0.378130413960264</v>
+        <v>0.348072022383946</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -73,12 +73,12 @@
 payments until they are more able to repay</t>
   </si>
   <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members
-(e.g. India, Brazil, AU), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-shipping, returned to countries based on population</t>
+    <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
+India, Brazil, African Union), restrict veto use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
@@ -88,8 +88,8 @@
     <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-aviation, returned to countries based on population</t>
+    <t xml:space="preserve">International levy on aviation carbon emissions, raising
+prices by 30%, returned to countries based on population</t>
   </si>
 </sst>
 </file>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -81,11 +81,11 @@
 returned to countries based on population</t>
   </si>
   <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
 year in climate finance for developing countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -467,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.641429835065082</v>
+        <v>0.641682484716321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.707297297619096</v>
+        <v>0.707630357223789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.75378479149565</v>
+        <v>0.749306536378077</v>
       </c>
       <c r="E2" t="n">
-        <v>0.714162841345846</v>
+        <v>0.717233043727545</v>
       </c>
       <c r="F2" t="n">
-        <v>0.73026657655124</v>
+        <v>0.733789920391927</v>
       </c>
       <c r="G2" t="n">
-        <v>0.657137233883983</v>
+        <v>0.650691636262882</v>
       </c>
       <c r="H2" t="n">
-        <v>0.666489214060063</v>
+        <v>0.669971953944574</v>
       </c>
       <c r="I2" t="n">
-        <v>0.696735427720171</v>
+        <v>0.700252955574911</v>
       </c>
       <c r="J2" t="n">
-        <v>0.641644761960389</v>
+        <v>0.626303012609941</v>
       </c>
       <c r="K2" t="n">
-        <v>0.539752716934604</v>
+        <v>0.537756374889575</v>
       </c>
       <c r="L2" t="n">
-        <v>0.669231528187866</v>
+        <v>0.66966411677055</v>
       </c>
       <c r="M2" t="n">
-        <v>0.605559915911804</v>
+        <v>0.604977285534812</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.559778445951765</v>
+        <v>0.559733544603443</v>
       </c>
       <c r="C3" t="n">
-        <v>0.610496410056237</v>
+        <v>0.61180950673525</v>
       </c>
       <c r="D3" t="n">
-        <v>0.563556816911053</v>
+        <v>0.559078595650595</v>
       </c>
       <c r="E3" t="n">
-        <v>0.635106101306739</v>
+        <v>0.63232255180282</v>
       </c>
       <c r="F3" t="n">
-        <v>0.722442422826453</v>
+        <v>0.721699725124924</v>
       </c>
       <c r="G3" t="n">
-        <v>0.516960646457556</v>
+        <v>0.505407614346341</v>
       </c>
       <c r="H3" t="n">
-        <v>0.574229454888718</v>
+        <v>0.574282718381771</v>
       </c>
       <c r="I3" t="n">
-        <v>0.601904349737365</v>
+        <v>0.615552896259627</v>
       </c>
       <c r="J3" t="n">
-        <v>0.608015149517196</v>
+        <v>0.600087195775163</v>
       </c>
       <c r="K3" t="n">
-        <v>0.442410038680248</v>
+        <v>0.443314915812597</v>
       </c>
       <c r="L3" t="n">
-        <v>0.693577341116261</v>
+        <v>0.692751397261683</v>
       </c>
       <c r="M3" t="n">
-        <v>0.537461991769193</v>
+        <v>0.536502001379517</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.528131005253617</v>
+        <v>0.53477831156953</v>
       </c>
       <c r="C4" t="n">
-        <v>0.575747579822426</v>
+        <v>0.580640264592347</v>
       </c>
       <c r="D4" t="n">
-        <v>0.542085412118249</v>
+        <v>0.545929745862552</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5572217103025</v>
+        <v>0.56219296112535</v>
       </c>
       <c r="F4" t="n">
-        <v>0.675879205040903</v>
+        <v>0.679376522617589</v>
       </c>
       <c r="G4" t="n">
-        <v>0.573529678713103</v>
+        <v>0.571046407185072</v>
       </c>
       <c r="H4" t="n">
-        <v>0.609638681756888</v>
+        <v>0.617371237424565</v>
       </c>
       <c r="I4" t="n">
-        <v>0.523498416770898</v>
+        <v>0.539521019786096</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5052106852238</v>
+        <v>0.511282904772276</v>
       </c>
       <c r="K4" t="n">
-        <v>0.433498093546114</v>
+        <v>0.43400941309609</v>
       </c>
       <c r="L4" t="n">
-        <v>0.751038045965779</v>
+        <v>0.751969544123096</v>
       </c>
       <c r="M4" t="n">
-        <v>0.492840845029073</v>
+        <v>0.505124654926533</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.506620824122519</v>
+        <v>0.502703404445974</v>
       </c>
       <c r="C5" t="n">
-        <v>0.57440811427785</v>
+        <v>0.575028913300834</v>
       </c>
       <c r="D5" t="n">
-        <v>0.587299433812439</v>
+        <v>0.580508906251804</v>
       </c>
       <c r="E5" t="n">
-        <v>0.564106619615701</v>
+        <v>0.561788413789888</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7046311190567</v>
+        <v>0.702949544798866</v>
       </c>
       <c r="G5" t="n">
-        <v>0.478469450130154</v>
+        <v>0.469273741247539</v>
       </c>
       <c r="H5" t="n">
-        <v>0.512197892272131</v>
+        <v>0.512755415214655</v>
       </c>
       <c r="I5" t="n">
-        <v>0.56309355733984</v>
+        <v>0.570109102761724</v>
       </c>
       <c r="J5" t="n">
-        <v>0.494196842127946</v>
+        <v>0.506872498003234</v>
       </c>
       <c r="K5" t="n">
-        <v>0.412161506309003</v>
+        <v>0.415975127048696</v>
       </c>
       <c r="L5" t="n">
-        <v>0.524426968209898</v>
+        <v>0.528843304485647</v>
       </c>
       <c r="M5" t="n">
-        <v>0.46673308451189</v>
+        <v>0.454733189341367</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +631,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.484261207557241</v>
+        <v>0.487196851772934</v>
       </c>
       <c r="C6" t="n">
-        <v>0.519130201535259</v>
+        <v>0.522490160350791</v>
       </c>
       <c r="D6" t="n">
-        <v>0.470642956458167</v>
+        <v>0.476553350359039</v>
       </c>
       <c r="E6" t="n">
-        <v>0.446114225319128</v>
+        <v>0.448434022129911</v>
       </c>
       <c r="F6" t="n">
-        <v>0.643314299388634</v>
+        <v>0.643515966239303</v>
       </c>
       <c r="G6" t="n">
-        <v>0.543791242040246</v>
+        <v>0.540768499834636</v>
       </c>
       <c r="H6" t="n">
-        <v>0.551159675299839</v>
+        <v>0.552409981747284</v>
       </c>
       <c r="I6" t="n">
-        <v>0.509704436234347</v>
+        <v>0.523341715582291</v>
       </c>
       <c r="J6" t="n">
-        <v>0.500308272514137</v>
+        <v>0.515499749781257</v>
       </c>
       <c r="K6" t="n">
-        <v>0.377163318090532</v>
+        <v>0.377148560114619</v>
       </c>
       <c r="L6" t="n">
-        <v>0.702188195667517</v>
+        <v>0.702814495279375</v>
       </c>
       <c r="M6" t="n">
-        <v>0.468198967508266</v>
+        <v>0.474184863589434</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +672,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.474555221520849</v>
+        <v>0.479941733687726</v>
       </c>
       <c r="C7" t="n">
-        <v>0.555708220598884</v>
+        <v>0.559357591277099</v>
       </c>
       <c r="D7" t="n">
-        <v>0.558559874267616</v>
+        <v>0.555139120394738</v>
       </c>
       <c r="E7" t="n">
-        <v>0.534278768701037</v>
+        <v>0.549750639713825</v>
       </c>
       <c r="F7" t="n">
-        <v>0.645728151292882</v>
+        <v>0.635214754548862</v>
       </c>
       <c r="G7" t="n">
-        <v>0.531526548409446</v>
+        <v>0.520168651227517</v>
       </c>
       <c r="H7" t="n">
-        <v>0.55112468416054</v>
+        <v>0.549704789592458</v>
       </c>
       <c r="I7" t="n">
-        <v>0.518225500608209</v>
+        <v>0.528437916734818</v>
       </c>
       <c r="J7" t="n">
-        <v>0.505811917684002</v>
+        <v>0.49995015594413</v>
       </c>
       <c r="K7" t="n">
-        <v>0.339141299890401</v>
+        <v>0.340425240415488</v>
       </c>
       <c r="L7" t="n">
-        <v>0.614588178676978</v>
+        <v>0.624015689074899</v>
       </c>
       <c r="M7" t="n">
-        <v>0.425142617416122</v>
+        <v>0.435440864693287</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +713,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.472824715437211</v>
+        <v>0.472768686367142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.540299946211351</v>
+        <v>0.542679114872353</v>
       </c>
       <c r="D8" t="n">
-        <v>0.581080470626023</v>
+        <v>0.579000104398192</v>
       </c>
       <c r="E8" t="n">
-        <v>0.496857570041854</v>
+        <v>0.489722814114732</v>
       </c>
       <c r="F8" t="n">
-        <v>0.619800311369099</v>
+        <v>0.617909436665962</v>
       </c>
       <c r="G8" t="n">
-        <v>0.479917426007941</v>
+        <v>0.484067664362045</v>
       </c>
       <c r="H8" t="n">
-        <v>0.558330918672409</v>
+        <v>0.555497960832094</v>
       </c>
       <c r="I8" t="n">
-        <v>0.497838759171957</v>
+        <v>0.514980646697761</v>
       </c>
       <c r="J8" t="n">
-        <v>0.556626219046817</v>
+        <v>0.565405048025154</v>
       </c>
       <c r="K8" t="n">
-        <v>0.298293685791564</v>
+        <v>0.300094014945528</v>
       </c>
       <c r="L8" t="n">
-        <v>0.589083695649622</v>
+        <v>0.596874014867454</v>
       </c>
       <c r="M8" t="n">
-        <v>0.455496705043167</v>
+        <v>0.453080978227199</v>
       </c>
     </row>
     <row r="9">
@@ -754,40 +754,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.462641342682708</v>
+        <v>0.464895046281465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.531544089711162</v>
+        <v>0.507530219718686</v>
       </c>
       <c r="D9" t="n">
-        <v>0.502718195309783</v>
+        <v>0.497432114257469</v>
       </c>
       <c r="E9" t="n">
-        <v>0.552960459417584</v>
+        <v>0.459530101243769</v>
       </c>
       <c r="F9" t="n">
-        <v>0.618872027804475</v>
+        <v>0.587881444715475</v>
       </c>
       <c r="G9" t="n">
-        <v>0.481945890743416</v>
+        <v>0.436099056008358</v>
       </c>
       <c r="H9" t="n">
-        <v>0.537649127413266</v>
+        <v>0.583070005718444</v>
       </c>
       <c r="I9" t="n">
-        <v>0.476785228732276</v>
+        <v>0.483325494805847</v>
       </c>
       <c r="J9" t="n">
-        <v>0.506852225988828</v>
+        <v>0.479342987398867</v>
       </c>
       <c r="K9" t="n">
-        <v>0.317535533584046</v>
+        <v>0.318042749244946</v>
       </c>
       <c r="L9" t="n">
-        <v>0.669274437328965</v>
+        <v>0.684870189686104</v>
       </c>
       <c r="M9" t="n">
-        <v>0.424685015980312</v>
+        <v>0.457147565819536</v>
       </c>
     </row>
     <row r="10">
@@ -795,40 +795,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.462297616140644</v>
+        <v>0.463288802735153</v>
       </c>
       <c r="C10" t="n">
-        <v>0.506137637530579</v>
+        <v>0.533022185484238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.497249076558709</v>
+        <v>0.506805801039481</v>
       </c>
       <c r="E10" t="n">
-        <v>0.465849128624448</v>
+        <v>0.545780831045381</v>
       </c>
       <c r="F10" t="n">
-        <v>0.590941130825556</v>
+        <v>0.619829067534421</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4481645319133</v>
+        <v>0.483123064466723</v>
       </c>
       <c r="H10" t="n">
-        <v>0.578645281957274</v>
+        <v>0.54284103999024</v>
       </c>
       <c r="I10" t="n">
-        <v>0.472673951555849</v>
+        <v>0.493316337897213</v>
       </c>
       <c r="J10" t="n">
-        <v>0.457221224861334</v>
+        <v>0.518694961592379</v>
       </c>
       <c r="K10" t="n">
-        <v>0.316658341782866</v>
+        <v>0.317523578834048</v>
       </c>
       <c r="L10" t="n">
-        <v>0.683051771994671</v>
+        <v>0.668375134530692</v>
       </c>
       <c r="M10" t="n">
-        <v>0.45089740113607</v>
+        <v>0.42600794196469</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.378155663849609</v>
+        <v>0.377937820818506</v>
       </c>
       <c r="C11" t="n">
-        <v>0.436480247894097</v>
+        <v>0.435000735223225</v>
       </c>
       <c r="D11" t="n">
-        <v>0.452068219505415</v>
+        <v>0.452857636027241</v>
       </c>
       <c r="E11" t="n">
-        <v>0.461168655543158</v>
+        <v>0.453419496604528</v>
       </c>
       <c r="F11" t="n">
-        <v>0.449848917369951</v>
+        <v>0.452397164598446</v>
       </c>
       <c r="G11" t="n">
-        <v>0.408101474316656</v>
+        <v>0.405937931544606</v>
       </c>
       <c r="H11" t="n">
-        <v>0.433136778594272</v>
+        <v>0.427431079725612</v>
       </c>
       <c r="I11" t="n">
-        <v>0.400168087109578</v>
+        <v>0.406132409237357</v>
       </c>
       <c r="J11" t="n">
-        <v>0.389559550133144</v>
+        <v>0.407552387815183</v>
       </c>
       <c r="K11" t="n">
-        <v>0.257582767085632</v>
+        <v>0.260732381906106</v>
       </c>
       <c r="L11" t="n">
-        <v>0.519258512614758</v>
+        <v>0.526829568174433</v>
       </c>
       <c r="M11" t="n">
-        <v>0.348072022383946</v>
+        <v>0.350266299224904</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -467,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.641682484716321</v>
+        <v>0.643076615960455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.707630357223789</v>
+        <v>0.704067644137971</v>
       </c>
       <c r="D2" t="n">
-        <v>0.749306536378077</v>
+        <v>0.745696743351662</v>
       </c>
       <c r="E2" t="n">
-        <v>0.717233043727545</v>
+        <v>0.708811888935109</v>
       </c>
       <c r="F2" t="n">
-        <v>0.733789920391927</v>
+        <v>0.731075170288666</v>
       </c>
       <c r="G2" t="n">
-        <v>0.650691636262882</v>
+        <v>0.628757229251457</v>
       </c>
       <c r="H2" t="n">
-        <v>0.669971953944574</v>
+        <v>0.664364447566835</v>
       </c>
       <c r="I2" t="n">
-        <v>0.700252955574911</v>
+        <v>0.703057220317016</v>
       </c>
       <c r="J2" t="n">
-        <v>0.626303012609941</v>
+        <v>0.643731132830398</v>
       </c>
       <c r="K2" t="n">
-        <v>0.537756374889575</v>
+        <v>0.536220407322557</v>
       </c>
       <c r="L2" t="n">
-        <v>0.66966411677055</v>
+        <v>0.670833846908728</v>
       </c>
       <c r="M2" t="n">
-        <v>0.604977285534812</v>
+        <v>0.613748603486619</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.559733544603443</v>
+        <v>0.560425612331314</v>
       </c>
       <c r="C3" t="n">
-        <v>0.61180950673525</v>
+        <v>0.604754243711711</v>
       </c>
       <c r="D3" t="n">
-        <v>0.559078595650595</v>
+        <v>0.559407590319213</v>
       </c>
       <c r="E3" t="n">
-        <v>0.63232255180282</v>
+        <v>0.608658927829387</v>
       </c>
       <c r="F3" t="n">
-        <v>0.721699725124924</v>
+        <v>0.721680282768107</v>
       </c>
       <c r="G3" t="n">
-        <v>0.505407614346341</v>
+        <v>0.473238390622065</v>
       </c>
       <c r="H3" t="n">
-        <v>0.574282718381771</v>
+        <v>0.567796385391907</v>
       </c>
       <c r="I3" t="n">
-        <v>0.615552896259627</v>
+        <v>0.631141909814605</v>
       </c>
       <c r="J3" t="n">
-        <v>0.600087195775163</v>
+        <v>0.609413812756703</v>
       </c>
       <c r="K3" t="n">
-        <v>0.443314915812597</v>
+        <v>0.449616357510206</v>
       </c>
       <c r="L3" t="n">
-        <v>0.692751397261683</v>
+        <v>0.699951386105416</v>
       </c>
       <c r="M3" t="n">
-        <v>0.536502001379517</v>
+        <v>0.542921850411716</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.53477831156953</v>
+        <v>0.539880221309969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.580640264592347</v>
+        <v>0.580080585349521</v>
       </c>
       <c r="D4" t="n">
-        <v>0.545929745862552</v>
+        <v>0.548162320001295</v>
       </c>
       <c r="E4" t="n">
-        <v>0.56219296112535</v>
+        <v>0.554744676700615</v>
       </c>
       <c r="F4" t="n">
-        <v>0.679376522617589</v>
+        <v>0.678977811727035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.571046407185072</v>
+        <v>0.546001781671342</v>
       </c>
       <c r="H4" t="n">
-        <v>0.617371237424565</v>
+        <v>0.614301058243081</v>
       </c>
       <c r="I4" t="n">
-        <v>0.539521019786096</v>
+        <v>0.557875218080749</v>
       </c>
       <c r="J4" t="n">
-        <v>0.511282904772276</v>
+        <v>0.520289565099987</v>
       </c>
       <c r="K4" t="n">
-        <v>0.43400941309609</v>
+        <v>0.440566982947254</v>
       </c>
       <c r="L4" t="n">
-        <v>0.751969544123096</v>
+        <v>0.754595050954226</v>
       </c>
       <c r="M4" t="n">
-        <v>0.505124654926533</v>
+        <v>0.517002634522486</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.502703404445974</v>
+        <v>0.507911322217956</v>
       </c>
       <c r="C5" t="n">
-        <v>0.575028913300834</v>
+        <v>0.576307051782642</v>
       </c>
       <c r="D5" t="n">
-        <v>0.580508906251804</v>
+        <v>0.575738874527403</v>
       </c>
       <c r="E5" t="n">
-        <v>0.561788413789888</v>
+        <v>0.568547592094282</v>
       </c>
       <c r="F5" t="n">
-        <v>0.702949544798866</v>
+        <v>0.703005690445496</v>
       </c>
       <c r="G5" t="n">
-        <v>0.469273741247539</v>
+        <v>0.470292499311735</v>
       </c>
       <c r="H5" t="n">
-        <v>0.512755415214655</v>
+        <v>0.504604323819173</v>
       </c>
       <c r="I5" t="n">
-        <v>0.570109102761724</v>
+        <v>0.578686529464858</v>
       </c>
       <c r="J5" t="n">
-        <v>0.506872498003234</v>
+        <v>0.508547085244048</v>
       </c>
       <c r="K5" t="n">
-        <v>0.415975127048696</v>
+        <v>0.421223132678687</v>
       </c>
       <c r="L5" t="n">
-        <v>0.528843304485647</v>
+        <v>0.530644213623694</v>
       </c>
       <c r="M5" t="n">
-        <v>0.454733189341367</v>
+        <v>0.464431052696859</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +631,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.487196851772934</v>
+        <v>0.4888214870715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.522490160350791</v>
+        <v>0.523046603226999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.476553350359039</v>
+        <v>0.483336701707409</v>
       </c>
       <c r="E6" t="n">
-        <v>0.448434022129911</v>
+        <v>0.444730823355046</v>
       </c>
       <c r="F6" t="n">
-        <v>0.643515966239303</v>
+        <v>0.641089511182911</v>
       </c>
       <c r="G6" t="n">
-        <v>0.540768499834636</v>
+        <v>0.53418812748525</v>
       </c>
       <c r="H6" t="n">
-        <v>0.552409981747284</v>
+        <v>0.548972562932302</v>
       </c>
       <c r="I6" t="n">
-        <v>0.523341715582291</v>
+        <v>0.538036945955006</v>
       </c>
       <c r="J6" t="n">
-        <v>0.515499749781257</v>
+        <v>0.520235597194276</v>
       </c>
       <c r="K6" t="n">
-        <v>0.377148560114619</v>
+        <v>0.377449085592575</v>
       </c>
       <c r="L6" t="n">
-        <v>0.702814495279375</v>
+        <v>0.703571225719179</v>
       </c>
       <c r="M6" t="n">
-        <v>0.474184863589434</v>
+        <v>0.478243291738301</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +672,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.479941733687726</v>
+        <v>0.482277519627035</v>
       </c>
       <c r="C7" t="n">
-        <v>0.559357591277099</v>
+        <v>0.556554654633913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.555139120394738</v>
+        <v>0.53918911922768</v>
       </c>
       <c r="E7" t="n">
-        <v>0.549750639713825</v>
+        <v>0.543339853805542</v>
       </c>
       <c r="F7" t="n">
-        <v>0.635214754548862</v>
+        <v>0.636763316517009</v>
       </c>
       <c r="G7" t="n">
-        <v>0.520168651227517</v>
+        <v>0.50023356757102</v>
       </c>
       <c r="H7" t="n">
-        <v>0.549704789592458</v>
+        <v>0.549768623895138</v>
       </c>
       <c r="I7" t="n">
-        <v>0.528437916734818</v>
+        <v>0.545037335543262</v>
       </c>
       <c r="J7" t="n">
-        <v>0.49995015594413</v>
+        <v>0.537596641610586</v>
       </c>
       <c r="K7" t="n">
-        <v>0.340425240415488</v>
+        <v>0.345505386817285</v>
       </c>
       <c r="L7" t="n">
-        <v>0.624015689074899</v>
+        <v>0.629350439518224</v>
       </c>
       <c r="M7" t="n">
-        <v>0.435440864693287</v>
+        <v>0.442102435220637</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +713,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.472768686367142</v>
+        <v>0.474965817868993</v>
       </c>
       <c r="C8" t="n">
-        <v>0.542679114872353</v>
+        <v>0.540327123031372</v>
       </c>
       <c r="D8" t="n">
-        <v>0.579000104398192</v>
+        <v>0.589314348842151</v>
       </c>
       <c r="E8" t="n">
-        <v>0.489722814114732</v>
+        <v>0.488231685037556</v>
       </c>
       <c r="F8" t="n">
-        <v>0.617909436665962</v>
+        <v>0.617585561536287</v>
       </c>
       <c r="G8" t="n">
-        <v>0.484067664362045</v>
+        <v>0.449150184246027</v>
       </c>
       <c r="H8" t="n">
-        <v>0.555497960832094</v>
+        <v>0.541774506849232</v>
       </c>
       <c r="I8" t="n">
-        <v>0.514980646697761</v>
+        <v>0.530485725715899</v>
       </c>
       <c r="J8" t="n">
-        <v>0.565405048025154</v>
+        <v>0.559028287197859</v>
       </c>
       <c r="K8" t="n">
-        <v>0.300094014945528</v>
+        <v>0.301155883709261</v>
       </c>
       <c r="L8" t="n">
-        <v>0.596874014867454</v>
+        <v>0.603725863836496</v>
       </c>
       <c r="M8" t="n">
-        <v>0.453080978227199</v>
+        <v>0.460819448718946</v>
       </c>
     </row>
     <row r="9">
@@ -754,40 +754,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.464895046281465</v>
+        <v>0.471409753379986</v>
       </c>
       <c r="C9" t="n">
-        <v>0.507530219718686</v>
+        <v>0.511419657456943</v>
       </c>
       <c r="D9" t="n">
-        <v>0.497432114257469</v>
+        <v>0.498503255744976</v>
       </c>
       <c r="E9" t="n">
-        <v>0.459530101243769</v>
+        <v>0.482115271821197</v>
       </c>
       <c r="F9" t="n">
-        <v>0.587881444715475</v>
+        <v>0.588255518208628</v>
       </c>
       <c r="G9" t="n">
-        <v>0.436099056008358</v>
+        <v>0.418116271636067</v>
       </c>
       <c r="H9" t="n">
-        <v>0.583070005718444</v>
+        <v>0.575085399456455</v>
       </c>
       <c r="I9" t="n">
-        <v>0.483325494805847</v>
+        <v>0.496242522614692</v>
       </c>
       <c r="J9" t="n">
-        <v>0.479342987398867</v>
+        <v>0.514791218052028</v>
       </c>
       <c r="K9" t="n">
-        <v>0.318042749244946</v>
+        <v>0.326570376124919</v>
       </c>
       <c r="L9" t="n">
-        <v>0.684870189686104</v>
+        <v>0.688471530144484</v>
       </c>
       <c r="M9" t="n">
-        <v>0.457147565819536</v>
+        <v>0.465682413067748</v>
       </c>
     </row>
     <row r="10">
@@ -795,40 +795,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.463288802735153</v>
+        <v>0.467474746861263</v>
       </c>
       <c r="C10" t="n">
-        <v>0.533022185484238</v>
+        <v>0.532496566334215</v>
       </c>
       <c r="D10" t="n">
-        <v>0.506805801039481</v>
+        <v>0.510337516961996</v>
       </c>
       <c r="E10" t="n">
-        <v>0.545780831045381</v>
+        <v>0.535199660956611</v>
       </c>
       <c r="F10" t="n">
-        <v>0.619829067534421</v>
+        <v>0.620933712216915</v>
       </c>
       <c r="G10" t="n">
-        <v>0.483123064466723</v>
+        <v>0.463322341840752</v>
       </c>
       <c r="H10" t="n">
-        <v>0.54284103999024</v>
+        <v>0.53848294988539</v>
       </c>
       <c r="I10" t="n">
-        <v>0.493316337897213</v>
+        <v>0.517209670337247</v>
       </c>
       <c r="J10" t="n">
-        <v>0.518694961592379</v>
+        <v>0.534124061707246</v>
       </c>
       <c r="K10" t="n">
-        <v>0.317523578834048</v>
+        <v>0.323131262509618</v>
       </c>
       <c r="L10" t="n">
-        <v>0.668375134530692</v>
+        <v>0.672464791241274</v>
       </c>
       <c r="M10" t="n">
-        <v>0.42600794196469</v>
+        <v>0.435622901644941</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.377937820818506</v>
+        <v>0.378532663776064</v>
       </c>
       <c r="C11" t="n">
-        <v>0.435000735223225</v>
+        <v>0.428037080634314</v>
       </c>
       <c r="D11" t="n">
-        <v>0.452857636027241</v>
+        <v>0.46880051448913</v>
       </c>
       <c r="E11" t="n">
-        <v>0.453419496604528</v>
+        <v>0.417978561866315</v>
       </c>
       <c r="F11" t="n">
-        <v>0.452397164598446</v>
+        <v>0.451484755118116</v>
       </c>
       <c r="G11" t="n">
-        <v>0.405937931544606</v>
+        <v>0.392269218189451</v>
       </c>
       <c r="H11" t="n">
-        <v>0.427431079725612</v>
+        <v>0.421053080993483</v>
       </c>
       <c r="I11" t="n">
-        <v>0.406132409237357</v>
+        <v>0.411907553836488</v>
       </c>
       <c r="J11" t="n">
-        <v>0.407552387815183</v>
+        <v>0.415829580788872</v>
       </c>
       <c r="K11" t="n">
-        <v>0.260732381906106</v>
+        <v>0.263692787331591</v>
       </c>
       <c r="L11" t="n">
-        <v>0.526829568174433</v>
+        <v>0.533333498726061</v>
       </c>
       <c r="M11" t="n">
-        <v>0.350266299224904</v>
+        <v>0.358176782808854</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -62,7 +62,7 @@
   </si>
   <si>
     <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
+vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -65,12 +68,19 @@
 vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
@@ -79,13 +89,6 @@
   <si>
     <t xml:space="preserve">International levy on shipping carbon emissions,
 returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -461,13 +464,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.643076615960455</v>
+        <v>0.633962467696558</v>
       </c>
       <c r="C2" t="n">
         <v>0.704067644137971</v>
@@ -497,18 +503,21 @@
         <v>0.536220407322557</v>
       </c>
       <c r="L2" t="n">
+        <v>0.57738010117846</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.670833846908728</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.613748603486619</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.560425612331314</v>
+        <v>0.564825609547483</v>
       </c>
       <c r="C3" t="n">
         <v>0.604754243711711</v>
@@ -538,18 +547,21 @@
         <v>0.449616357510206</v>
       </c>
       <c r="L3" t="n">
+        <v>0.593729019108443</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.699951386105416</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.542921850411716</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.539880221309969</v>
+        <v>0.549994948091601</v>
       </c>
       <c r="C4" t="n">
         <v>0.580080585349521</v>
@@ -579,264 +591,283 @@
         <v>0.440566982947254</v>
       </c>
       <c r="L4" t="n">
+        <v>0.613079967973228</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.754595050954226</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.517002634522486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.507911322217956</v>
+        <v>0.492144288269402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.576307051782642</v>
+        <v>0.523046603226999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.575738874527403</v>
+        <v>0.483336701707409</v>
       </c>
       <c r="E5" t="n">
-        <v>0.568547592094282</v>
+        <v>0.444730823355046</v>
       </c>
       <c r="F5" t="n">
-        <v>0.703005690445496</v>
+        <v>0.641089511182911</v>
       </c>
       <c r="G5" t="n">
-        <v>0.470292499311735</v>
+        <v>0.53418812748525</v>
       </c>
       <c r="H5" t="n">
-        <v>0.504604323819173</v>
+        <v>0.548972562932302</v>
       </c>
       <c r="I5" t="n">
-        <v>0.578686529464858</v>
+        <v>0.538036945955006</v>
       </c>
       <c r="J5" t="n">
-        <v>0.508547085244048</v>
+        <v>0.520235597194276</v>
       </c>
       <c r="K5" t="n">
-        <v>0.421223132678687</v>
+        <v>0.377449085592575</v>
       </c>
       <c r="L5" t="n">
-        <v>0.530644213623694</v>
+        <v>0.515169597309526</v>
       </c>
       <c r="M5" t="n">
-        <v>0.464431052696859</v>
+        <v>0.703571225719179</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.478243291738301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4888214870715</v>
+        <v>0.486814687086861</v>
       </c>
       <c r="C6" t="n">
-        <v>0.523046603226999</v>
+        <v>0.576307051782642</v>
       </c>
       <c r="D6" t="n">
-        <v>0.483336701707409</v>
+        <v>0.575738874527403</v>
       </c>
       <c r="E6" t="n">
-        <v>0.444730823355046</v>
+        <v>0.568547592094282</v>
       </c>
       <c r="F6" t="n">
-        <v>0.641089511182911</v>
+        <v>0.703005690445496</v>
       </c>
       <c r="G6" t="n">
-        <v>0.53418812748525</v>
+        <v>0.470292499311735</v>
       </c>
       <c r="H6" t="n">
-        <v>0.548972562932302</v>
+        <v>0.504604323819173</v>
       </c>
       <c r="I6" t="n">
-        <v>0.538036945955006</v>
+        <v>0.578686529464858</v>
       </c>
       <c r="J6" t="n">
-        <v>0.520235597194276</v>
+        <v>0.508547085244048</v>
       </c>
       <c r="K6" t="n">
-        <v>0.377449085592575</v>
+        <v>0.421223132678687</v>
       </c>
       <c r="L6" t="n">
-        <v>0.703571225719179</v>
+        <v>0.352237788140477</v>
       </c>
       <c r="M6" t="n">
-        <v>0.478243291738301</v>
+        <v>0.530644213623694</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.464431052696859</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.482277519627035</v>
+        <v>0.48640921838595</v>
       </c>
       <c r="C7" t="n">
-        <v>0.556554654633913</v>
+        <v>0.511419657456943</v>
       </c>
       <c r="D7" t="n">
-        <v>0.53918911922768</v>
+        <v>0.498503255744976</v>
       </c>
       <c r="E7" t="n">
-        <v>0.543339853805542</v>
+        <v>0.482115271821197</v>
       </c>
       <c r="F7" t="n">
-        <v>0.636763316517009</v>
+        <v>0.588255518208628</v>
       </c>
       <c r="G7" t="n">
-        <v>0.50023356757102</v>
+        <v>0.418116271636067</v>
       </c>
       <c r="H7" t="n">
-        <v>0.549768623895138</v>
+        <v>0.575085399456455</v>
       </c>
       <c r="I7" t="n">
-        <v>0.545037335543262</v>
+        <v>0.496242522614692</v>
       </c>
       <c r="J7" t="n">
-        <v>0.537596641610586</v>
+        <v>0.514791218052028</v>
       </c>
       <c r="K7" t="n">
-        <v>0.345505386817285</v>
+        <v>0.326570376124919</v>
       </c>
       <c r="L7" t="n">
-        <v>0.629350439518224</v>
+        <v>0.581194634357356</v>
       </c>
       <c r="M7" t="n">
-        <v>0.442102435220637</v>
+        <v>0.688471530144484</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.465682413067748</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.474965817868993</v>
+        <v>0.4841495153327</v>
       </c>
       <c r="C8" t="n">
-        <v>0.540327123031372</v>
+        <v>0.532496566334215</v>
       </c>
       <c r="D8" t="n">
-        <v>0.589314348842151</v>
+        <v>0.510337516961996</v>
       </c>
       <c r="E8" t="n">
-        <v>0.488231685037556</v>
+        <v>0.535199660956611</v>
       </c>
       <c r="F8" t="n">
-        <v>0.617585561536287</v>
+        <v>0.620933712216915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.449150184246027</v>
+        <v>0.463322341840752</v>
       </c>
       <c r="H8" t="n">
-        <v>0.541774506849232</v>
+        <v>0.53848294988539</v>
       </c>
       <c r="I8" t="n">
-        <v>0.530485725715899</v>
+        <v>0.517209670337247</v>
       </c>
       <c r="J8" t="n">
-        <v>0.559028287197859</v>
+        <v>0.534124061707246</v>
       </c>
       <c r="K8" t="n">
-        <v>0.301155883709261</v>
+        <v>0.323131262509618</v>
       </c>
       <c r="L8" t="n">
-        <v>0.603725863836496</v>
+        <v>0.590603530719817</v>
       </c>
       <c r="M8" t="n">
-        <v>0.460819448718946</v>
+        <v>0.672464791241274</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.435622901644941</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.471409753379986</v>
+        <v>0.482277519627035</v>
       </c>
       <c r="C9" t="n">
-        <v>0.511419657456943</v>
+        <v>0.556554654633913</v>
       </c>
       <c r="D9" t="n">
-        <v>0.498503255744976</v>
+        <v>0.53918911922768</v>
       </c>
       <c r="E9" t="n">
-        <v>0.482115271821197</v>
+        <v>0.543339853805542</v>
       </c>
       <c r="F9" t="n">
-        <v>0.588255518208628</v>
+        <v>0.636763316517009</v>
       </c>
       <c r="G9" t="n">
-        <v>0.418116271636067</v>
+        <v>0.50023356757102</v>
       </c>
       <c r="H9" t="n">
-        <v>0.575085399456455</v>
+        <v>0.549768623895138</v>
       </c>
       <c r="I9" t="n">
-        <v>0.496242522614692</v>
+        <v>0.545037335543262</v>
       </c>
       <c r="J9" t="n">
-        <v>0.514791218052028</v>
+        <v>0.537596641610586</v>
       </c>
       <c r="K9" t="n">
-        <v>0.326570376124919</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.688471530144484</v>
-      </c>
+        <v>0.345505386817285</v>
+      </c>
+      <c r="L9"/>
       <c r="M9" t="n">
-        <v>0.465682413067748</v>
+        <v>0.629350439518224</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.442102435220637</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.467474746861263</v>
+        <v>0.475358523279269</v>
       </c>
       <c r="C10" t="n">
-        <v>0.532496566334215</v>
+        <v>0.540327123031372</v>
       </c>
       <c r="D10" t="n">
-        <v>0.510337516961996</v>
+        <v>0.589314348842151</v>
       </c>
       <c r="E10" t="n">
-        <v>0.535199660956611</v>
+        <v>0.488231685037556</v>
       </c>
       <c r="F10" t="n">
-        <v>0.620933712216915</v>
+        <v>0.617585561536287</v>
       </c>
       <c r="G10" t="n">
-        <v>0.463322341840752</v>
+        <v>0.449150184246027</v>
       </c>
       <c r="H10" t="n">
-        <v>0.53848294988539</v>
+        <v>0.541774506849232</v>
       </c>
       <c r="I10" t="n">
-        <v>0.517209670337247</v>
+        <v>0.530485725715899</v>
       </c>
       <c r="J10" t="n">
-        <v>0.534124061707246</v>
+        <v>0.559028287197859</v>
       </c>
       <c r="K10" t="n">
-        <v>0.323131262509618</v>
+        <v>0.301155883709261</v>
       </c>
       <c r="L10" t="n">
-        <v>0.672464791241274</v>
+        <v>0.479306133464017</v>
       </c>
       <c r="M10" t="n">
-        <v>0.435622901644941</v>
+        <v>0.603725863836496</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.460819448718946</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.378532663776064</v>
+        <v>0.376287987536441</v>
       </c>
       <c r="C11" t="n">
         <v>0.428037080634314</v>
@@ -866,9 +897,12 @@
         <v>0.263692787331591</v>
       </c>
       <c r="L11" t="n">
+        <v>0.360126728250076</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.533333498726061</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>0.358176782808854</v>
       </c>
     </row>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.633962467696558</v>
+        <v>0.633968765760938</v>
       </c>
       <c r="C2" t="n">
         <v>0.704067644137971</v>
@@ -503,7 +503,7 @@
         <v>0.536220407322557</v>
       </c>
       <c r="L2" t="n">
-        <v>0.57738010117846</v>
+        <v>0.577911993482519</v>
       </c>
       <c r="M2" t="n">
         <v>0.670833846908728</v>
@@ -517,10 +517,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564825609547483</v>
+        <v>0.564807450747494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.604754243711711</v>
+        <v>0.60475424371171</v>
       </c>
       <c r="D3" t="n">
         <v>0.559407590319213</v>
@@ -547,7 +547,7 @@
         <v>0.449616357510206</v>
       </c>
       <c r="L3" t="n">
-        <v>0.593729019108443</v>
+        <v>0.594486480801516</v>
       </c>
       <c r="M3" t="n">
         <v>0.699951386105416</v>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.549994948091601</v>
+        <v>0.549706370407686</v>
       </c>
       <c r="C4" t="n">
         <v>0.580080585349521</v>
@@ -591,7 +591,7 @@
         <v>0.440566982947254</v>
       </c>
       <c r="L4" t="n">
-        <v>0.613079967973228</v>
+        <v>0.611142685480055</v>
       </c>
       <c r="M4" t="n">
         <v>0.754595050954226</v>
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.492144288269402</v>
+        <v>0.491851054003034</v>
       </c>
       <c r="C5" t="n">
         <v>0.523046603226999</v>
@@ -635,7 +635,7 @@
         <v>0.377449085592575</v>
       </c>
       <c r="L5" t="n">
-        <v>0.515169597309526</v>
+        <v>0.512956934318578</v>
       </c>
       <c r="M5" t="n">
         <v>0.703571225719179</v>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.486814687086861</v>
+        <v>0.486462438527916</v>
       </c>
       <c r="C6" t="n">
         <v>0.576307051782642</v>
@@ -679,7 +679,7 @@
         <v>0.421223132678687</v>
       </c>
       <c r="L6" t="n">
-        <v>0.352237788140477</v>
+        <v>0.350339159619032</v>
       </c>
       <c r="M6" t="n">
         <v>0.530644213623694</v>
@@ -693,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.48640921838595</v>
+        <v>0.486375618726881</v>
       </c>
       <c r="C7" t="n">
         <v>0.511419657456943</v>
@@ -723,7 +723,7 @@
         <v>0.326570376124919</v>
       </c>
       <c r="L7" t="n">
-        <v>0.581194634357356</v>
+        <v>0.58026332596379</v>
       </c>
       <c r="M7" t="n">
         <v>0.688471530144484</v>
@@ -737,10 +737,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4841495153327</v>
+        <v>0.483862201225956</v>
       </c>
       <c r="C8" t="n">
-        <v>0.532496566334215</v>
+        <v>0.532496566334214</v>
       </c>
       <c r="D8" t="n">
         <v>0.510337516961996</v>
@@ -767,7 +767,7 @@
         <v>0.323131262509618</v>
       </c>
       <c r="L8" t="n">
-        <v>0.590603530719817</v>
+        <v>0.588887309074129</v>
       </c>
       <c r="M8" t="n">
         <v>0.672464791241274</v>
@@ -784,7 +784,7 @@
         <v>0.482277519627035</v>
       </c>
       <c r="C9" t="n">
-        <v>0.556554654633913</v>
+        <v>0.556554654633912</v>
       </c>
       <c r="D9" t="n">
         <v>0.53918911922768</v>
@@ -823,7 +823,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.475358523279269</v>
+        <v>0.475212760550412</v>
       </c>
       <c r="C10" t="n">
         <v>0.540327123031372</v>
@@ -853,7 +853,7 @@
         <v>0.301155883709261</v>
       </c>
       <c r="L10" t="n">
-        <v>0.479306133464017</v>
+        <v>0.478478554035235</v>
       </c>
       <c r="M10" t="n">
         <v>0.603725863836496</v>
@@ -867,7 +867,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.376287987536441</v>
+        <v>0.376399757957128</v>
       </c>
       <c r="C11" t="n">
         <v>0.428037080634314</v>
@@ -897,7 +897,7 @@
         <v>0.263692787331591</v>
       </c>
       <c r="L11" t="n">
-        <v>0.360126728250076</v>
+        <v>0.361594886474252</v>
       </c>
       <c r="M11" t="n">
         <v>0.533333498726061</v>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -83,12 +83,12 @@
 year in climate finance for developing countries</t>
   </si>
   <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
 India, Brazil, African Union), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.633968765760938</v>
+        <v>0.632065500007775</v>
       </c>
       <c r="C2" t="n">
         <v>0.704067644137971</v>
@@ -503,7 +503,7 @@
         <v>0.536220407322557</v>
       </c>
       <c r="L2" t="n">
-        <v>0.577911993482519</v>
+        <v>0.564602390219955</v>
       </c>
       <c r="M2" t="n">
         <v>0.670833846908728</v>
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564807450747494</v>
+        <v>0.563431084578761</v>
       </c>
       <c r="C3" t="n">
         <v>0.60475424371171</v>
@@ -547,7 +547,7 @@
         <v>0.449616357510206</v>
       </c>
       <c r="L3" t="n">
-        <v>0.594486480801516</v>
+        <v>0.584712498691402</v>
       </c>
       <c r="M3" t="n">
         <v>0.699951386105416</v>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.549706370407686</v>
+        <v>0.548340224270065</v>
       </c>
       <c r="C4" t="n">
         <v>0.580080585349521</v>
@@ -591,7 +591,7 @@
         <v>0.440566982947254</v>
       </c>
       <c r="L4" t="n">
-        <v>0.611142685480055</v>
+        <v>0.602083037157481</v>
       </c>
       <c r="M4" t="n">
         <v>0.754595050954226</v>
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.491851054003034</v>
+        <v>0.490475464294783</v>
       </c>
       <c r="C5" t="n">
         <v>0.523046603226999</v>
@@ -635,7 +635,7 @@
         <v>0.377449085592575</v>
       </c>
       <c r="L5" t="n">
-        <v>0.512956934318578</v>
+        <v>0.504593966098032</v>
       </c>
       <c r="M5" t="n">
         <v>0.703571225719179</v>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.486462438527916</v>
+        <v>0.486566640761621</v>
       </c>
       <c r="C6" t="n">
         <v>0.576307051782642</v>
@@ -679,7 +679,7 @@
         <v>0.421223132678687</v>
       </c>
       <c r="L6" t="n">
-        <v>0.350339159619032</v>
+        <v>0.351082206810744</v>
       </c>
       <c r="M6" t="n">
         <v>0.530644213623694</v>
@@ -693,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.486375618726881</v>
+        <v>0.485718276735452</v>
       </c>
       <c r="C7" t="n">
         <v>0.511419657456943</v>
@@ -723,7 +723,7 @@
         <v>0.326570376124919</v>
       </c>
       <c r="L7" t="n">
-        <v>0.58026332596379</v>
+        <v>0.577728121138121</v>
       </c>
       <c r="M7" t="n">
         <v>0.688471530144484</v>
@@ -737,10 +737,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.483862201225956</v>
+        <v>0.482657094283177</v>
       </c>
       <c r="C8" t="n">
-        <v>0.532496566334214</v>
+        <v>0.532496566334215</v>
       </c>
       <c r="D8" t="n">
         <v>0.510337516961996</v>
@@ -767,7 +767,7 @@
         <v>0.323131262509618</v>
       </c>
       <c r="L8" t="n">
-        <v>0.588887309074129</v>
+        <v>0.580714537636134</v>
       </c>
       <c r="M8" t="n">
         <v>0.672464791241274</v>
@@ -781,41 +781,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.482277519627035</v>
+        <v>0.473487767327748</v>
       </c>
       <c r="C9" t="n">
-        <v>0.556554654633912</v>
+        <v>0.540327123031372</v>
       </c>
       <c r="D9" t="n">
-        <v>0.53918911922768</v>
+        <v>0.589314348842151</v>
       </c>
       <c r="E9" t="n">
-        <v>0.543339853805542</v>
+        <v>0.488231685037556</v>
       </c>
       <c r="F9" t="n">
-        <v>0.636763316517009</v>
+        <v>0.617585561536287</v>
       </c>
       <c r="G9" t="n">
-        <v>0.50023356757102</v>
+        <v>0.449150184246027</v>
       </c>
       <c r="H9" t="n">
-        <v>0.549768623895138</v>
+        <v>0.541774506849232</v>
       </c>
       <c r="I9" t="n">
-        <v>0.545037335543262</v>
+        <v>0.530485725715899</v>
       </c>
       <c r="J9" t="n">
-        <v>0.537596641610586</v>
+        <v>0.559028287197859</v>
       </c>
       <c r="K9" t="n">
-        <v>0.345505386817285</v>
-      </c>
-      <c r="L9"/>
+        <v>0.301155883709261</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.466866746267779</v>
+      </c>
       <c r="M9" t="n">
-        <v>0.629350439518224</v>
+        <v>0.603725863836496</v>
       </c>
       <c r="N9" t="n">
-        <v>0.442102435220637</v>
+        <v>0.460819448718946</v>
       </c>
     </row>
     <row r="10">
@@ -823,43 +825,43 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.475212760550412</v>
+        <v>0.466452272217841</v>
       </c>
       <c r="C10" t="n">
-        <v>0.540327123031372</v>
+        <v>0.556554654633912</v>
       </c>
       <c r="D10" t="n">
-        <v>0.589314348842151</v>
+        <v>0.53918911922768</v>
       </c>
       <c r="E10" t="n">
-        <v>0.488231685037556</v>
+        <v>0.543339853805542</v>
       </c>
       <c r="F10" t="n">
-        <v>0.617585561536287</v>
+        <v>0.636763316517009</v>
       </c>
       <c r="G10" t="n">
-        <v>0.449150184246027</v>
+        <v>0.50023356757102</v>
       </c>
       <c r="H10" t="n">
-        <v>0.541774506849232</v>
+        <v>0.549768623895138</v>
       </c>
       <c r="I10" t="n">
-        <v>0.530485725715899</v>
+        <v>0.545037335543262</v>
       </c>
       <c r="J10" t="n">
-        <v>0.559028287197859</v>
+        <v>0.537596641610586</v>
       </c>
       <c r="K10" t="n">
-        <v>0.301155883709261</v>
+        <v>0.345505386817285</v>
       </c>
       <c r="L10" t="n">
-        <v>0.478478554035235</v>
+        <v>0.36791094931808</v>
       </c>
       <c r="M10" t="n">
-        <v>0.603725863836496</v>
+        <v>0.629350439518224</v>
       </c>
       <c r="N10" t="n">
-        <v>0.460819448718946</v>
+        <v>0.442102435220637</v>
       </c>
     </row>
     <row r="11">
@@ -867,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.376399757957128</v>
+        <v>0.374600636479701</v>
       </c>
       <c r="C11" t="n">
         <v>0.428037080634314</v>
@@ -897,7 +899,7 @@
         <v>0.263692787331591</v>
       </c>
       <c r="L11" t="n">
-        <v>0.361594886474252</v>
+        <v>0.349255364607529</v>
       </c>
       <c r="M11" t="n">
         <v>0.533333498726061</v>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -72,11 +72,11 @@
 payments until they are more able to repay</t>
   </si>
   <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.632065500007775</v>
+        <v>0.633130423220635</v>
       </c>
       <c r="C2" t="n">
         <v>0.704067644137971</v>
@@ -500,16 +500,16 @@
         <v>0.643731132830398</v>
       </c>
       <c r="K2" t="n">
-        <v>0.536220407322557</v>
+        <v>0.536289674297806</v>
       </c>
       <c r="L2" t="n">
-        <v>0.564602390219955</v>
+        <v>0.568973456184735</v>
       </c>
       <c r="M2" t="n">
         <v>0.670833846908728</v>
       </c>
       <c r="N2" t="n">
-        <v>0.613748603486619</v>
+        <v>0.613585301201966</v>
       </c>
     </row>
     <row r="3">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.563431084578761</v>
+        <v>0.563498853260559</v>
       </c>
       <c r="C3" t="n">
         <v>0.60475424371171</v>
@@ -544,16 +544,16 @@
         <v>0.609413812756703</v>
       </c>
       <c r="K3" t="n">
-        <v>0.449616357510206</v>
+        <v>0.449843052433434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.584712498691402</v>
+        <v>0.583955154990387</v>
       </c>
       <c r="M3" t="n">
         <v>0.699951386105416</v>
       </c>
       <c r="N3" t="n">
-        <v>0.542921850411716</v>
+        <v>0.543153219230958</v>
       </c>
     </row>
     <row r="4">
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.548340224270065</v>
+        <v>0.548888702456242</v>
       </c>
       <c r="C4" t="n">
         <v>0.580080585349521</v>
@@ -588,16 +588,16 @@
         <v>0.520289565099987</v>
       </c>
       <c r="K4" t="n">
-        <v>0.440566982947254</v>
+        <v>0.440780635761654</v>
       </c>
       <c r="L4" t="n">
-        <v>0.602083037157481</v>
+        <v>0.605453531287603</v>
       </c>
       <c r="M4" t="n">
         <v>0.754595050954226</v>
       </c>
       <c r="N4" t="n">
-        <v>0.517002634522486</v>
+        <v>0.51718496787221</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.490475464294783</v>
+        <v>0.492515087699993</v>
       </c>
       <c r="C5" t="n">
         <v>0.523046603226999</v>
@@ -632,16 +632,16 @@
         <v>0.520235597194276</v>
       </c>
       <c r="K5" t="n">
-        <v>0.377449085592575</v>
+        <v>0.377526454559727</v>
       </c>
       <c r="L5" t="n">
-        <v>0.504593966098032</v>
+        <v>0.5178833513058</v>
       </c>
       <c r="M5" t="n">
         <v>0.703571225719179</v>
       </c>
       <c r="N5" t="n">
-        <v>0.478243291738301</v>
+        <v>0.478385428677498</v>
       </c>
     </row>
     <row r="6">
@@ -649,43 +649,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.486566640761621</v>
+        <v>0.487666417243067</v>
       </c>
       <c r="C6" t="n">
-        <v>0.576307051782642</v>
+        <v>0.511419657456943</v>
       </c>
       <c r="D6" t="n">
-        <v>0.575738874527403</v>
+        <v>0.498503255744976</v>
       </c>
       <c r="E6" t="n">
-        <v>0.568547592094282</v>
+        <v>0.482115271821197</v>
       </c>
       <c r="F6" t="n">
-        <v>0.703005690445496</v>
+        <v>0.588255518208628</v>
       </c>
       <c r="G6" t="n">
-        <v>0.470292499311735</v>
+        <v>0.418116271636067</v>
       </c>
       <c r="H6" t="n">
-        <v>0.504604323819173</v>
+        <v>0.575085399456455</v>
       </c>
       <c r="I6" t="n">
-        <v>0.578686529464858</v>
+        <v>0.496242522614692</v>
       </c>
       <c r="J6" t="n">
-        <v>0.508547085244048</v>
+        <v>0.514791218052028</v>
       </c>
       <c r="K6" t="n">
-        <v>0.421223132678687</v>
+        <v>0.326771598111478</v>
       </c>
       <c r="L6" t="n">
-        <v>0.351082206810744</v>
+        <v>0.589896134442377</v>
       </c>
       <c r="M6" t="n">
-        <v>0.530644213623694</v>
+        <v>0.688471530144484</v>
       </c>
       <c r="N6" t="n">
-        <v>0.464431052696859</v>
+        <v>0.465797396193811</v>
       </c>
     </row>
     <row r="7">
@@ -693,43 +693,43 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.485718276735452</v>
+        <v>0.486367361421124</v>
       </c>
       <c r="C7" t="n">
-        <v>0.511419657456943</v>
+        <v>0.576307051782642</v>
       </c>
       <c r="D7" t="n">
-        <v>0.498503255744976</v>
+        <v>0.575738874527403</v>
       </c>
       <c r="E7" t="n">
-        <v>0.482115271821197</v>
+        <v>0.568547592094282</v>
       </c>
       <c r="F7" t="n">
-        <v>0.588255518208628</v>
+        <v>0.703005690445496</v>
       </c>
       <c r="G7" t="n">
-        <v>0.418116271636067</v>
+        <v>0.470292499311735</v>
       </c>
       <c r="H7" t="n">
-        <v>0.575085399456455</v>
+        <v>0.504604323819173</v>
       </c>
       <c r="I7" t="n">
-        <v>0.496242522614692</v>
+        <v>0.578686529464858</v>
       </c>
       <c r="J7" t="n">
-        <v>0.514791218052028</v>
+        <v>0.508547085244048</v>
       </c>
       <c r="K7" t="n">
-        <v>0.326570376124919</v>
+        <v>0.42139897333696</v>
       </c>
       <c r="L7" t="n">
-        <v>0.577728121138121</v>
+        <v>0.34778801311712</v>
       </c>
       <c r="M7" t="n">
-        <v>0.688471530144484</v>
+        <v>0.530644213623694</v>
       </c>
       <c r="N7" t="n">
-        <v>0.465682413067748</v>
+        <v>0.464265963242049</v>
       </c>
     </row>
     <row r="8">
@@ -737,10 +737,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.482657094283177</v>
+        <v>0.484425269846573</v>
       </c>
       <c r="C8" t="n">
-        <v>0.532496566334215</v>
+        <v>0.532496566334214</v>
       </c>
       <c r="D8" t="n">
         <v>0.510337516961996</v>
@@ -764,16 +764,16 @@
         <v>0.534124061707246</v>
       </c>
       <c r="K8" t="n">
-        <v>0.323131262509618</v>
+        <v>0.323312484205863</v>
       </c>
       <c r="L8" t="n">
-        <v>0.580714537636134</v>
+        <v>0.594355780533345</v>
       </c>
       <c r="M8" t="n">
         <v>0.672464791241274</v>
       </c>
       <c r="N8" t="n">
-        <v>0.435622901644941</v>
+        <v>0.435731863213516</v>
       </c>
     </row>
     <row r="9">
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.473487767327748</v>
+        <v>0.472274429131213</v>
       </c>
       <c r="C9" t="n">
         <v>0.540327123031372</v>
@@ -808,16 +808,16 @@
         <v>0.559028287197859</v>
       </c>
       <c r="K9" t="n">
-        <v>0.301155883709261</v>
+        <v>0.301289618026923</v>
       </c>
       <c r="L9" t="n">
-        <v>0.466866746267779</v>
+        <v>0.456838794373566</v>
       </c>
       <c r="M9" t="n">
         <v>0.603725863836496</v>
       </c>
       <c r="N9" t="n">
-        <v>0.460819448718946</v>
+        <v>0.460841645436029</v>
       </c>
     </row>
     <row r="10">
@@ -825,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.466452272217841</v>
+        <v>0.463687229299451</v>
       </c>
       <c r="C10" t="n">
         <v>0.556554654633912</v>
@@ -852,16 +852,16 @@
         <v>0.537596641610586</v>
       </c>
       <c r="K10" t="n">
-        <v>0.345505386817285</v>
+        <v>0.345706439418249</v>
       </c>
       <c r="L10" t="n">
-        <v>0.36791094931808</v>
+        <v>0.349016296615525</v>
       </c>
       <c r="M10" t="n">
         <v>0.629350439518224</v>
       </c>
       <c r="N10" t="n">
-        <v>0.442102435220637</v>
+        <v>0.441874269944322</v>
       </c>
     </row>
     <row r="11">
@@ -869,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.374600636479701</v>
+        <v>0.373752935747861</v>
       </c>
       <c r="C11" t="n">
         <v>0.428037080634314</v>
@@ -896,16 +896,16 @@
         <v>0.415829580788872</v>
       </c>
       <c r="K11" t="n">
-        <v>0.263692787331591</v>
+        <v>0.263792724428881</v>
       </c>
       <c r="L11" t="n">
-        <v>0.349255364607529</v>
+        <v>0.34371419848382</v>
       </c>
       <c r="M11" t="n">
         <v>0.533333498726061</v>
       </c>
       <c r="N11" t="n">
-        <v>0.358176782808854</v>
+        <v>0.357961152388123</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_positive.xlsx
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.633130423220635</v>
+        <v>0.633494335624418</v>
       </c>
       <c r="C2" t="n">
         <v>0.704067644137971</v>
@@ -503,7 +503,7 @@
         <v>0.536289674297806</v>
       </c>
       <c r="L2" t="n">
-        <v>0.568973456184735</v>
+        <v>0.571420592391542</v>
       </c>
       <c r="M2" t="n">
         <v>0.670833846908728</v>
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.563498853260559</v>
+        <v>0.563185705845955</v>
       </c>
       <c r="C3" t="n">
         <v>0.60475424371171</v>
@@ -547,7 +547,7 @@
         <v>0.449843052433434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.583955154990387</v>
+        <v>0.581687077490783</v>
       </c>
       <c r="M3" t="n">
         <v>0.699951386105416</v>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.548888702456242</v>
+        <v>0.549025299914154</v>
       </c>
       <c r="C4" t="n">
         <v>0.580080585349521</v>
@@ -591,7 +591,7 @@
         <v>0.440780635761654</v>
       </c>
       <c r="L4" t="n">
-        <v>0.605453531287603</v>
+        <v>0.606993083582337</v>
       </c>
       <c r="M4" t="n">
         <v>0.754595050954226</v>
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.492515087699993</v>
+        <v>0.492207052765953</v>
       </c>
       <c r="C5" t="n">
         <v>0.523046603226999</v>
@@ -635,7 +635,7 @@
         <v>0.377526454559727</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5178833513058</v>
+        <v>0.515461423170611</v>
       </c>
       <c r="M5" t="n">
         <v>0.703571225719179</v>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.487666417243067</v>
+        <v>0.487936223741052</v>
       </c>
       <c r="C6" t="n">
         <v>0.511419657456943</v>
@@ -679,7 +679,7 @@
         <v>0.326771598111478</v>
       </c>
       <c r="L6" t="n">
-        <v>0.589896134442377</v>
+        <v>0.59173795514127</v>
       </c>
       <c r="M6" t="n">
         <v>0.688471530144484</v>
@@ -693,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.486367361421124</v>
+        <v>0.48659573221636</v>
       </c>
       <c r="C7" t="n">
         <v>0.576307051782642</v>
@@ -723,7 +723,7 @@
         <v>0.42139897333696</v>
       </c>
       <c r="L7" t="n">
-        <v>0.34778801311712</v>
+        <v>0.349529833122157</v>
       </c>
       <c r="M7" t="n">
         <v>0.530644213623694</v>
@@ -737,10 +737,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.484425269846573</v>
+        <v>0.484505093491948</v>
       </c>
       <c r="C8" t="n">
-        <v>0.532496566334214</v>
+        <v>0.532496566334215</v>
       </c>
       <c r="D8" t="n">
         <v>0.510337516961996</v>
@@ -767,7 +767,7 @@
         <v>0.323312484205863</v>
       </c>
       <c r="L8" t="n">
-        <v>0.594355780533345</v>
+        <v>0.595431312960594</v>
       </c>
       <c r="M8" t="n">
         <v>0.672464791241274</v>
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.472274429131213</v>
+        <v>0.472605946730509</v>
       </c>
       <c r="C9" t="n">
         <v>0.540327123031372</v>
@@ -811,7 +811,7 @@
         <v>0.301289618026923</v>
       </c>
       <c r="L9" t="n">
-        <v>0.456838794373566</v>
+        <v>0.459773904184331</v>
       </c>
       <c r="M9" t="n">
         <v>0.603725863836496</v>
@@ -825,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.463687229299451</v>
+        <v>0.463777077783225</v>
       </c>
       <c r="C10" t="n">
         <v>0.556554654633912</v>
@@ -855,7 +855,7 @@
         <v>0.345706439418249</v>
       </c>
       <c r="L10" t="n">
-        <v>0.349016296615525</v>
+        <v>0.349930643239213</v>
       </c>
       <c r="M10" t="n">
         <v>0.629350439518224</v>
@@ -869,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.373752935747861</v>
+        <v>0.373830435892481</v>
       </c>
       <c r="C11" t="n">
         <v>0.428037080634314</v>
@@ -899,7 +899,7 @@
         <v>0.263792724428881</v>
       </c>
       <c r="L11" t="n">
-        <v>0.34371419848382</v>
+        <v>0.344282629685112</v>
       </c>
       <c r="M11" t="n">
         <v>0.533333498726061</v>
